--- a/梁卫鸿/旅游网—开发一梁卫鸿 .xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿 .xlsx
@@ -1,30 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ojjplus\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58292E96-BE72-4C8D-8D52-271B8AE35FE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
-    <sheet name="罗凤海" sheetId="2" r:id="rId2"/>
-    <sheet name="张坤立" sheetId="3" r:id="rId3"/>
-    <sheet name="徐锦涛" sheetId="4" r:id="rId4"/>
-    <sheet name="马清阳" sheetId="5" r:id="rId5"/>
-    <sheet name="孙凡舒" sheetId="6" r:id="rId6"/>
-    <sheet name="程俊杰" sheetId="7" r:id="rId7"/>
-    <sheet name="张文旺" sheetId="8" r:id="rId8"/>
-    <sheet name="熊和亮" sheetId="9" r:id="rId9"/>
-    <sheet name="华柳盛" sheetId="10" r:id="rId10"/>
+    <sheet name="梁卫鸿" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="罗凤海" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="张坤立" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="徐锦涛" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="马清阳" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="孙凡舒" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="程俊杰" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="张文旺" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="熊和亮" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="华柳盛" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -36,232 +31,232 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="77">
   <si>
-    <t>进度表-旅游网的设计与实现</t>
+    <t xml:space="preserve">进度表-旅游网的设计与实现</t>
   </si>
   <si>
-    <t>整体模块</t>
+    <t xml:space="preserve">整体模块</t>
   </si>
   <si>
-    <t>具体子模块</t>
+    <t xml:space="preserve">具体子模块</t>
   </si>
   <si>
-    <t>计划完成时间</t>
+    <t xml:space="preserve">计划完成时间</t>
   </si>
   <si>
-    <t>实际完成时间</t>
+    <t xml:space="preserve">实际完成时间</t>
   </si>
   <si>
-    <t>进度检查时间</t>
+    <t xml:space="preserve">进度检查时间</t>
   </si>
   <si>
-    <t>进度百分比</t>
+    <t xml:space="preserve">进度百分比</t>
   </si>
   <si>
-    <t>进度说明</t>
+    <t xml:space="preserve">进度说明</t>
   </si>
   <si>
-    <t>备注</t>
+    <t xml:space="preserve">备注</t>
   </si>
   <si>
-    <t>准备工作</t>
+    <t xml:space="preserve">准备工作</t>
   </si>
   <si>
-    <t>数据库建立</t>
+    <t xml:space="preserve">数据库建立</t>
   </si>
   <si>
-    <t>已完成</t>
+    <t xml:space="preserve">已完成</t>
   </si>
   <si>
-    <t>普通用户</t>
+    <t xml:space="preserve">普通用户</t>
   </si>
   <si>
-    <t>首页-查询所有</t>
+    <t xml:space="preserve">首页-查询所有</t>
   </si>
   <si>
-    <t>首页-登录</t>
+    <t xml:space="preserve">首页-登录</t>
   </si>
   <si>
-    <t>首页-注册</t>
+    <t xml:space="preserve">首页-注册</t>
   </si>
   <si>
-    <t>首页-超链接功能的实现</t>
+    <t xml:space="preserve">首页-超链接功能的实现</t>
   </si>
   <si>
-    <t>404，映射错误（以解决）</t>
+    <t xml:space="preserve">404，映射错误（以解决）</t>
   </si>
   <si>
-    <t>首页-加入购物车功能的实现</t>
+    <t xml:space="preserve">首页-加入购物车功能的实现</t>
   </si>
   <si>
-    <t>未完成</t>
+    <t xml:space="preserve">未完成</t>
   </si>
   <si>
-    <t>首页-结算功能的实现</t>
+    <t xml:space="preserve">首页-结算功能的实现</t>
   </si>
   <si>
-    <t>境内游-查询</t>
+    <t xml:space="preserve">境内游-查询</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>境内游-超链接的实现</t>
+    <t xml:space="preserve">境内游-超链接的实现</t>
   </si>
   <si>
-    <t>境内游-加入购物车</t>
+    <t xml:space="preserve">境内游-加入购物车</t>
   </si>
   <si>
-    <t>境内游-结算功能</t>
+    <t xml:space="preserve">境内游-结算功能</t>
   </si>
   <si>
-    <t>境内游-分页</t>
+    <t xml:space="preserve">境内游-分页</t>
   </si>
   <si>
-    <t>境外游-超链接的实现</t>
+    <t xml:space="preserve">境外游-超链接的实现</t>
   </si>
   <si>
-    <t>境外游-加入购物车</t>
+    <t xml:space="preserve">境外游-加入购物车</t>
   </si>
   <si>
-    <t>境外游-结算功能</t>
+    <t xml:space="preserve">境外游-结算功能</t>
   </si>
   <si>
-    <t>境外游-分页</t>
+    <t xml:space="preserve">境外游-分页</t>
   </si>
   <si>
-    <t>热门游-超链接的实现</t>
+    <t xml:space="preserve">热门游-超链接的实现</t>
   </si>
   <si>
-    <t>热门游-加入购物车</t>
+    <t xml:space="preserve">热门游-加入购物车</t>
   </si>
   <si>
-    <t>热门游-结算功能</t>
+    <t xml:space="preserve">热门游-结算功能</t>
   </si>
   <si>
-    <t>热门游-分页</t>
+    <t xml:space="preserve">热门游-分页</t>
   </si>
   <si>
-    <t>团购游-超链接的实现</t>
+    <t xml:space="preserve">团购游-超链接的实现</t>
   </si>
   <si>
-    <t>团购游-加入购物车</t>
+    <t xml:space="preserve">团购游-加入购物车</t>
   </si>
   <si>
-    <t>团购游-结算功能</t>
+    <t xml:space="preserve">团购游-结算功能</t>
   </si>
   <si>
-    <t>团购游-分页</t>
+    <t xml:space="preserve">团购游-分页</t>
   </si>
   <si>
-    <t>购物车-分页</t>
+    <t xml:space="preserve">购物车-分页</t>
   </si>
   <si>
-    <t>购物车-删除</t>
+    <t xml:space="preserve">购物车-删除</t>
   </si>
   <si>
-    <t>购物车-下单</t>
+    <t xml:space="preserve">购物车-下单</t>
   </si>
   <si>
-    <t>填写订单</t>
+    <t xml:space="preserve">填写订单</t>
   </si>
   <si>
-    <t>确认订单</t>
+    <t xml:space="preserve">确认订单</t>
   </si>
   <si>
-    <t>结算</t>
+    <t xml:space="preserve">结算</t>
   </si>
   <si>
-    <t>管理员</t>
+    <t xml:space="preserve">管理员</t>
   </si>
   <si>
-    <t>管理员-登录</t>
+    <t xml:space="preserve">管理员-登录</t>
   </si>
   <si>
-    <t>管理员-退出</t>
+    <t xml:space="preserve">管理员-退出</t>
   </si>
   <si>
-    <t>管理员-添加旅游路线类型</t>
+    <t xml:space="preserve">管理员-添加旅游路线类型</t>
   </si>
   <si>
-    <t>管理员-查询旅游路线类型</t>
+    <t xml:space="preserve">管理员-查询旅游路线类型</t>
   </si>
   <si>
-    <t>管理员-查询旅游路线类型-分页</t>
+    <t xml:space="preserve">管理员-查询旅游路线类型-分页</t>
   </si>
   <si>
-    <t>管理员-修改旅游路线类型</t>
+    <t xml:space="preserve">管理员-修改旅游路线类型</t>
   </si>
   <si>
-    <t>管理员-添加旅游路线</t>
+    <t xml:space="preserve">管理员-添加旅游路线</t>
   </si>
   <si>
-    <t>管理员-查询旅游路线</t>
+    <t xml:space="preserve">管理员-查询旅游路线</t>
   </si>
   <si>
-    <t>管理员-查询旅游路线-分页</t>
+    <t xml:space="preserve">管理员-查询旅游路线-分页</t>
   </si>
   <si>
-    <t>后期优化</t>
+    <t xml:space="preserve">后期优化</t>
   </si>
   <si>
-    <t>2019/6.24</t>
+    <t xml:space="preserve">2019/6.24</t>
   </si>
   <si>
-    <t>唯一键不知道如何设置（已解决）</t>
+    <t xml:space="preserve">唯一键不知道如何设置（已解决）</t>
   </si>
   <si>
-    <t>已完 成</t>
+    <t xml:space="preserve">已完 成</t>
   </si>
   <si>
-    <t>进度控制表-文件共享系统的设计与实现</t>
+    <t xml:space="preserve">进度控制表-文件共享系统的设计与实现</t>
   </si>
   <si>
-    <t>21点</t>
+    <t xml:space="preserve">21点</t>
   </si>
   <si>
-    <t>外键未设</t>
+    <t xml:space="preserve">外键未设</t>
   </si>
   <si>
-    <t>需求分析说明书</t>
+    <t xml:space="preserve">需求分析说明书</t>
   </si>
   <si>
-    <t>系统设计说明书（含数据库词典）</t>
+    <t xml:space="preserve">系统设计说明书（含数据库词典）</t>
   </si>
   <si>
-    <t>没什么问题</t>
+    <t xml:space="preserve">没什么问题</t>
   </si>
   <si>
-    <t>前台</t>
+    <t xml:space="preserve">前台</t>
   </si>
   <si>
-    <t>登录界面</t>
+    <t xml:space="preserve">登录界面</t>
   </si>
   <si>
-    <t>图片加载不出来（已解决）</t>
+    <t xml:space="preserve">图片加载不出来（已解决）</t>
   </si>
   <si>
-    <t>主页面界面</t>
+    <t xml:space="preserve">主页面界面</t>
   </si>
   <si>
-    <t>后台</t>
+    <t xml:space="preserve">后台</t>
   </si>
   <si>
-    <t>登录功能的实现</t>
+    <t xml:space="preserve">登录功能的实现</t>
   </si>
   <si>
-    <t>主页面的头部功能的实现</t>
+    <t xml:space="preserve">主页面的头部功能的实现</t>
   </si>
   <si>
-    <t>主页面的中部功能的实现</t>
+    <t xml:space="preserve">主页面的中部功能的实现</t>
   </si>
   <si>
-    <t>主页面的尾功能的实现</t>
+    <t xml:space="preserve">主页面的尾功能的实现</t>
   </si>
   <si>
-    <t>管理员登录与普通员工登录</t>
+    <t xml:space="preserve">管理员登录与普通员工登录</t>
   </si>
   <si>
-    <t>优化几个模块的功能</t>
+    <t xml:space="preserve">优化几个模块的功能</t>
   </si>
   <si>
     <r>
@@ -272,7 +267,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>！！！编码一定要加注释，否则后期自己改都很麻烦，</t>
+      <t xml:space="preserve">！！！编码一定要加注释，否则后期自己改都很麻烦，</t>
     </r>
     <r>
       <rPr>
@@ -282,23 +277,44 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>周末两天要进行优化测试以及一些功能的补充</t>
+      <t xml:space="preserve">周末两天要进行优化测试以及一些功能的补充</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="[$-804]yyyy\-m\-d"/>
-    <numFmt numFmtId="177" formatCode="[$-804]h:mm"/>
-    <numFmt numFmtId="178" formatCode="[$-804]h:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="[$-804]YYYY\-M\-D"/>
+    <numFmt numFmtId="166" formatCode="[$-804]H:MM"/>
+    <numFmt numFmtId="167" formatCode="0%"/>
+    <numFmt numFmtId="168" formatCode="[$-804]H:MM:SS"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
@@ -308,14 +324,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="26"/>
       <color rgb="FF000000"/>
       <name val="隶书"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -364,7 +381,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <i val="true"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
@@ -385,12 +402,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -407,464 +418,200 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="常规 2" xfId="20"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" activeCellId="1" sqref="G43 G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" customWidth="1"/>
-    <col min="8" max="8" width="99.88671875" customWidth="1"/>
-    <col min="9" max="1025" width="9" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="99.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" customFormat="false" ht="32.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,7 +623,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="28.8">
+    <row r="2" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -902,23 +649,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="5" t="n">
         <v>43637</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="5" t="n">
         <v>43637</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -926,23 +673,23 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="5" t="n">
         <v>43638</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="5" t="n">
         <v>43638</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -950,21 +697,21 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="5" t="n">
         <v>43638</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="5" t="n">
         <v>43640</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -972,21 +719,21 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="5" t="n">
         <v>43638</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="5" t="n">
         <v>43640</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -994,21 +741,21 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="15.6">
+    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="5" t="n">
         <v>43639</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -1018,19 +765,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.6">
+    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="5" t="n">
         <v>43639</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="6">
+      <c r="E8" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -1038,7 +785,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="15.6">
+    <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -1052,7 +799,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6">
+    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -1068,7 +815,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="15.6">
+    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -1082,7 +829,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -1096,7 +843,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -1110,7 +857,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -1124,7 +871,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="15.6">
+    <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -1138,7 +885,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -1152,7 +899,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -1166,7 +913,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -1180,7 +927,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="15.6">
+    <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -1194,7 +941,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -1208,7 +955,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -1222,7 +969,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -1236,7 +983,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -1250,7 +997,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -1264,7 +1011,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -1278,7 +1025,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -1292,7 +1039,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -1306,7 +1053,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -1320,7 +1067,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -1334,7 +1081,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -1348,7 +1095,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -1362,7 +1109,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
@@ -1376,23 +1123,23 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G33" s="8" t="s">
@@ -1400,7 +1147,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -1414,7 +1161,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -1428,7 +1175,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -1442,7 +1189,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -1456,7 +1203,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -1470,7 +1217,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -1484,7 +1231,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -1498,7 +1245,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -1512,7 +1259,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -1526,7 +1273,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -1540,7 +1287,7 @@
       </c>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
@@ -1550,7 +1297,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="18"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="15"/>
@@ -1560,7 +1307,7 @@
       <c r="G45" s="17"/>
       <c r="H45" s="18"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="15"/>
@@ -1570,7 +1317,7 @@
       <c r="G46" s="17"/>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="15"/>
@@ -1580,7 +1327,7 @@
       <c r="G47" s="17"/>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="15"/>
@@ -1590,7 +1337,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="18"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="15"/>
@@ -1600,7 +1347,7 @@
       <c r="G49" s="17"/>
       <c r="H49" s="18"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="15"/>
@@ -1610,7 +1357,7 @@
       <c r="G50" s="17"/>
       <c r="H50" s="18"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="15"/>
@@ -1620,7 +1367,7 @@
       <c r="G51" s="17"/>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="15"/>
@@ -1634,34 +1381,41 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" activeCellId="1" sqref="G43 F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
-    <col min="9" max="1025" width="9" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" customFormat="false" ht="32.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1673,7 +1427,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1699,23 +1453,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="5" t="n">
         <v>43637</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="5" t="n">
         <v>43637</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -1723,7 +1477,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1739,7 +1493,7 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -1753,7 +1507,7 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -1767,7 +1521,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -1781,7 +1535,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -1795,7 +1549,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="24">
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -1809,7 +1563,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -1823,7 +1577,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="24">
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -1837,7 +1591,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -1851,7 +1605,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -1865,7 +1619,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -1879,7 +1633,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="24">
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -1893,7 +1647,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -1907,7 +1661,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -1921,7 +1675,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -1935,7 +1689,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -1949,7 +1703,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -1963,7 +1717,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -1977,7 +1731,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -1991,7 +1745,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -2005,7 +1759,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -2019,7 +1773,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -2033,7 +1787,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -2047,7 +1801,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -2061,7 +1815,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -2075,7 +1829,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -2089,7 +1843,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -2103,7 +1857,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -2117,7 +1871,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
@@ -2131,7 +1885,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
@@ -2147,7 +1901,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -2161,7 +1915,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -2175,7 +1929,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -2189,7 +1943,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -2203,7 +1957,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -2217,7 +1971,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -2231,7 +1985,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -2245,7 +1999,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -2259,7 +2013,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -2273,7 +2027,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -2291,34 +2045,41 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" activeCellId="1" sqref="G43 C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
-    <col min="9" max="1025" width="9" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" customFormat="false" ht="32.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2330,7 +2091,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2356,23 +2117,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="5" t="n">
         <v>43637</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="5" t="n">
         <v>43637</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -2380,23 +2141,23 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="5" t="n">
         <v>43638</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="5" t="n">
         <v>43638</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -2404,41 +2165,41 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="5" t="n">
         <v>43639</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="6">
+      <c r="E5" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F5" s="7">
-        <v>0.9</v>
+      <c r="F5" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="5" t="n">
         <v>43640</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="5" t="n">
         <v>43640</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="19" t="n">
         <v>0.875</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -2446,89 +2207,115 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7"/>
+      <c r="C7" s="5" t="n">
+        <v>43642</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>43642</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G7" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="n">
+        <v>43642</v>
+      </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>0.4</v>
+      </c>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="24">
+    <row r="9" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G9" s="8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="24">
+    <row r="11" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
+      <c r="C11" s="5" t="n">
+        <v>43642</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>43642</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G11" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -2542,7 +2329,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -2556,41 +2343,51 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="24">
+    <row r="15" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="7"/>
+      <c r="C15" s="5" t="n">
+        <v>43642</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>43642</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G15" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -2604,7 +2401,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -2618,41 +2415,51 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G18" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
+      <c r="C19" s="5" t="n">
+        <v>43642</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>43642</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G19" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -2666,7 +2473,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -2680,41 +2487,51 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G22" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="7"/>
+      <c r="C23" s="5" t="n">
+        <v>43642</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>43642</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G23" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -2728,7 +2545,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -2742,7 +2559,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -2756,7 +2573,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -2770,7 +2587,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -2784,7 +2601,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -2798,21 +2615,27 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="5" t="n">
+        <v>43642</v>
+      </c>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="7"/>
+      <c r="E30" s="6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G30" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -2826,49 +2649,53 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G32" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G33" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -2882,21 +2709,27 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="5" t="n">
+        <v>43642</v>
+      </c>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="7"/>
+      <c r="E35" s="6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>0.6</v>
+      </c>
       <c r="G35" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -2910,7 +2743,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -2924,7 +2757,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -2938,7 +2771,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -2952,7 +2785,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -2966,7 +2799,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -2980,7 +2813,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -2994,7 +2827,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -3012,34 +2845,41 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" activeCellId="1" sqref="G43 C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
-    <col min="9" max="1025" width="9" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" customFormat="false" ht="32.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3051,7 +2891,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3077,23 +2917,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="5" t="n">
         <v>43637</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="5" t="n">
         <v>43637</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -3101,23 +2941,23 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="5" t="n">
         <v>43638</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="5" t="n">
         <v>43638</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -3125,41 +2965,41 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="5" t="n">
         <v>43639</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="6">
+      <c r="E5" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F5" s="7">
-        <v>0.9</v>
+      <c r="F5" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="5" t="n">
         <v>43640</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="5" t="n">
         <v>43640</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="19" t="n">
         <v>0.875</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -3167,89 +3007,115 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7"/>
+      <c r="C7" s="5" t="n">
+        <v>43642</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>43642</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G7" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="n">
+        <v>43642</v>
+      </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>0.4</v>
+      </c>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="24">
+    <row r="9" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G9" s="8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="n">
+        <v>0.7</v>
+      </c>
       <c r="G10" s="8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="24">
+    <row r="11" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
+      <c r="C11" s="5" t="n">
+        <v>43642</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>43642</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G11" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -3263,7 +3129,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -3277,41 +3143,51 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="24">
+    <row r="15" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="7"/>
+      <c r="C15" s="5" t="n">
+        <v>43642</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>43642</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G15" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -3325,7 +3201,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -3339,41 +3215,51 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G18" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
+      <c r="C19" s="5" t="n">
+        <v>43642</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>43642</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G19" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -3387,7 +3273,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -3401,41 +3287,51 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G22" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="7"/>
+      <c r="C23" s="5" t="n">
+        <v>43642</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>43642</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G23" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -3449,7 +3345,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -3463,7 +3359,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -3477,7 +3373,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -3491,7 +3387,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -3505,7 +3401,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -3519,21 +3415,21 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="7"/>
       <c r="G30" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -3547,49 +3443,47 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="D32" s="5">
-        <v>43641</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0.875</v>
-      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="7"/>
       <c r="G32" s="8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G33" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -3603,21 +3497,27 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="5" t="n">
+        <v>43642</v>
+      </c>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="7"/>
+      <c r="E35" s="6" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G35" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -3631,7 +3531,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -3645,7 +3545,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -3659,7 +3559,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -3673,7 +3573,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -3687,7 +3587,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -3701,7 +3601,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -3715,7 +3615,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -3733,34 +3633,41 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
-    <col min="9" max="1025" width="9" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" customFormat="false" ht="32.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3772,7 +3679,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3798,23 +3705,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="5" t="n">
         <v>43637</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="5" t="n">
         <v>43637</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -3822,7 +3729,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -3832,13 +3739,13 @@
       <c r="C4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="5" t="n">
         <v>43640</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -3846,21 +3753,21 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="5" t="n">
         <v>43640</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -3868,21 +3775,21 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -3890,21 +3797,21 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -3912,7 +3819,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -3926,7 +3833,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="24">
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -3940,7 +3847,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -3954,7 +3861,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="24">
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -3968,7 +3875,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -3982,7 +3889,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -3996,7 +3903,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -4010,7 +3917,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="24">
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -4024,7 +3931,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -4038,7 +3945,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -4052,7 +3959,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -4066,7 +3973,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -4080,7 +3987,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -4094,7 +4001,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -4108,7 +4015,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -4122,7 +4029,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -4136,7 +4043,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -4150,7 +4057,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -4164,7 +4071,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -4178,7 +4085,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -4192,7 +4099,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -4206,7 +4113,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -4220,7 +4127,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -4234,7 +4141,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -4248,7 +4155,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
@@ -4262,7 +4169,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
@@ -4278,7 +4185,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -4292,7 +4199,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -4306,7 +4213,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -4320,7 +4227,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -4334,7 +4241,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -4348,7 +4255,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -4362,7 +4269,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -4376,7 +4283,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -4390,7 +4297,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -4404,7 +4311,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -4422,34 +4329,41 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCellId="1" sqref="G43 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
-    <col min="9" max="1025" width="9" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" customFormat="false" ht="32.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4461,7 +4375,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4487,23 +4401,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="5" t="n">
         <v>43638</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="5" t="n">
         <v>43638</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -4513,7 +4427,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -4529,21 +4443,21 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="5" t="n">
         <v>43640</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -4551,21 +4465,21 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -4573,7 +4487,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="15.6">
+    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -4587,7 +4501,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -4601,7 +4515,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="15.6">
+    <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -4615,7 +4529,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -4629,7 +4543,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="15.6">
+    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -4643,7 +4557,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -4657,7 +4571,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -4671,7 +4585,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -4685,7 +4599,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="15.6">
+    <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -4699,7 +4613,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -4713,7 +4627,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -4727,7 +4641,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -4741,7 +4655,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="15.6">
+    <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -4755,7 +4669,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -4769,7 +4683,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -4783,7 +4697,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -4797,7 +4711,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -4811,7 +4725,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -4825,7 +4739,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -4839,7 +4753,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -4853,7 +4767,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -4867,7 +4781,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -4881,7 +4795,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -4895,7 +4809,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -4909,7 +4823,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -4923,7 +4837,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
@@ -4937,7 +4851,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
@@ -4953,7 +4867,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -4967,7 +4881,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -4981,7 +4895,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -4995,7 +4909,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -5009,7 +4923,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -5023,7 +4937,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -5037,7 +4951,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -5051,7 +4965,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -5065,7 +4979,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -5079,7 +4993,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -5097,34 +5011,41 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" activeCellId="1" sqref="G43 D22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
-    <col min="9" max="1025" width="9" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" customFormat="false" ht="32.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5136,7 +5057,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5162,23 +5083,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="5" t="n">
         <v>43637</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="5" t="n">
         <v>43637</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -5186,7 +5107,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -5202,7 +5123,7 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -5216,7 +5137,7 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -5230,7 +5151,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -5244,7 +5165,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -5258,7 +5179,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="24">
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -5272,7 +5193,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -5286,7 +5207,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="24">
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -5300,7 +5221,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -5314,7 +5235,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -5328,7 +5249,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -5342,7 +5263,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="24">
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -5356,7 +5277,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -5370,7 +5291,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -5384,7 +5305,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -5398,7 +5319,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -5412,7 +5333,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -5426,7 +5347,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -5440,7 +5361,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -5454,7 +5375,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -5468,7 +5389,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -5482,7 +5403,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -5496,7 +5417,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -5510,7 +5431,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -5524,7 +5445,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -5538,7 +5459,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -5552,7 +5473,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -5566,7 +5487,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -5580,7 +5501,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
@@ -5594,7 +5515,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
@@ -5610,7 +5531,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -5624,7 +5545,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -5638,7 +5559,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -5652,7 +5573,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -5666,7 +5587,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -5680,7 +5601,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -5694,7 +5615,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -5708,7 +5629,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -5722,7 +5643,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -5736,7 +5657,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -5754,34 +5675,41 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
-    <col min="9" max="1025" width="9" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" customFormat="false" ht="32.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5793,7 +5721,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5819,23 +5747,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="5" t="n">
         <v>43637</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="5" t="n">
         <v>43637</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -5843,23 +5771,23 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="5" t="n">
         <v>43638</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="5" t="n">
         <v>43638</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -5867,21 +5795,21 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -5889,21 +5817,21 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="5" t="n">
         <v>43641</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -5911,7 +5839,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -5925,7 +5853,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -5939,7 +5867,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="24">
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -5953,7 +5881,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -5967,7 +5895,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="24">
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -5981,7 +5909,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -5995,7 +5923,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -6009,7 +5937,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -6023,7 +5951,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="24">
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -6037,7 +5965,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -6051,7 +5979,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -6065,7 +5993,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -6079,7 +6007,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -6093,7 +6021,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -6107,7 +6035,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -6121,7 +6049,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -6135,7 +6063,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -6149,7 +6077,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -6163,7 +6091,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -6177,7 +6105,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -6191,7 +6119,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -6205,7 +6133,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -6219,7 +6147,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -6233,7 +6161,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -6247,7 +6175,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -6261,7 +6189,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
@@ -6275,7 +6203,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
@@ -6291,7 +6219,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -6305,7 +6233,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -6319,7 +6247,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -6333,7 +6261,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -6347,7 +6275,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -6361,7 +6289,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -6375,7 +6303,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -6389,7 +6317,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -6403,7 +6331,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -6417,7 +6345,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -6435,34 +6363,41 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" activeCellId="1" sqref="G43 D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
-    <col min="9" max="1025" width="9" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" customFormat="false" ht="32.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6474,7 +6409,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6500,23 +6435,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="5" t="n">
         <v>43637</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="5" t="n">
         <v>43637</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -6524,23 +6459,23 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="5" t="n">
         <v>43638</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="5" t="n">
         <v>43638</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="7" t="n">
         <v>0.5</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -6548,21 +6483,21 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="5" t="n">
         <v>43638</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="5" t="n">
         <v>43640</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -6570,7 +6505,7 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -6584,7 +6519,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -6598,7 +6533,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -6612,7 +6547,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="24">
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -6626,7 +6561,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -6640,7 +6575,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="24">
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -6654,7 +6589,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -6668,7 +6603,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -6682,7 +6617,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -6696,7 +6631,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="24">
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -6710,7 +6645,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -6724,7 +6659,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -6738,7 +6673,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -6752,7 +6687,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -6766,7 +6701,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -6780,7 +6715,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -6794,7 +6729,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -6808,7 +6743,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -6822,7 +6757,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -6836,7 +6771,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -6850,7 +6785,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -6864,7 +6799,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -6878,7 +6813,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -6892,7 +6827,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -6906,7 +6841,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -6920,7 +6855,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -6934,7 +6869,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
@@ -6948,7 +6883,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
@@ -6964,7 +6899,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -6978,7 +6913,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -6992,7 +6927,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -7006,7 +6941,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -7020,7 +6955,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -7034,7 +6969,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -7048,7 +6983,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -7062,7 +6997,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -7076,7 +7011,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -7090,7 +7025,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -7108,42 +7043,49 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" activeCellId="1" sqref="G43 F31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
-    <col min="9" max="21" width="9" customWidth="1"/>
-    <col min="22" max="22" width="27" customWidth="1"/>
-    <col min="23" max="23" width="17.109375" customWidth="1"/>
-    <col min="24" max="24" width="18.44140625" customWidth="1"/>
-    <col min="25" max="25" width="26.33203125" customWidth="1"/>
-    <col min="26" max="26" width="21.88671875" customWidth="1"/>
-    <col min="27" max="27" width="38.109375" customWidth="1"/>
-    <col min="28" max="28" width="71.77734375" customWidth="1"/>
-    <col min="29" max="1025" width="9" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="9" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="27.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="17.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="18.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="26.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="21.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="38.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="71.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="29" style="0" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="32.4">
+    <row r="1" customFormat="false" ht="32.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7165,7 +7107,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" ht="27" customHeight="1">
+    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7215,23 +7157,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.6">
+    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="5" t="n">
         <v>43637</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="5" t="n">
         <v>43637</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="6" t="n">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -7244,16 +7186,16 @@
       <c r="V3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="5" t="n">
         <v>43592</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3" s="5" t="n">
         <v>43592</v>
       </c>
       <c r="Y3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="Z3" s="7">
+      <c r="Z3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AA3" s="8" t="s">
@@ -7263,7 +7205,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.6">
+    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -7285,7 +7227,7 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="7">
+      <c r="Z4" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AA4" s="8" t="s">
@@ -7293,7 +7235,7 @@
       </c>
       <c r="AB4" s="9"/>
     </row>
-    <row r="5" spans="1:28" ht="24">
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -7313,7 +7255,7 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
-      <c r="Z5" s="7">
+      <c r="Z5" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AA5" s="8" t="s">
@@ -7323,7 +7265,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15.6">
+    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -7345,7 +7287,7 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
-      <c r="Z6" s="7">
+      <c r="Z6" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AA6" s="8" t="s">
@@ -7355,7 +7297,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="24">
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -7372,16 +7314,16 @@
       <c r="V7" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="5" t="n">
         <v>43592</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="5" t="n">
         <v>43592</v>
       </c>
       <c r="Y7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="Z7" s="7" t="n">
         <v>1</v>
       </c>
       <c r="AA7" s="8" t="s">
@@ -7389,7 +7331,7 @@
       </c>
       <c r="AB7" s="9"/>
     </row>
-    <row r="8" spans="1:28" ht="24">
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -7411,7 +7353,7 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-      <c r="Z8" s="7">
+      <c r="Z8" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AA8" s="8" t="s">
@@ -7419,7 +7361,7 @@
       </c>
       <c r="AB8" s="9"/>
     </row>
-    <row r="9" spans="1:28" ht="24">
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -7439,7 +7381,7 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-      <c r="Z9" s="7">
+      <c r="Z9" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AA9" s="8" t="s">
@@ -7447,7 +7389,7 @@
       </c>
       <c r="AB9" s="9"/>
     </row>
-    <row r="10" spans="1:28" ht="38.25" customHeight="1">
+    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -7467,7 +7409,7 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="7">
+      <c r="Z10" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AA10" s="8" t="s">
@@ -7475,7 +7417,7 @@
       </c>
       <c r="AB10" s="9"/>
     </row>
-    <row r="11" spans="1:28" ht="24">
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -7495,7 +7437,7 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-      <c r="Z11" s="7">
+      <c r="Z11" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AA11" s="8" t="s">
@@ -7503,7 +7445,7 @@
       </c>
       <c r="AB11" s="9"/>
     </row>
-    <row r="12" spans="1:28" ht="15.6">
+    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -7523,7 +7465,7 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-      <c r="Z12" s="7">
+      <c r="Z12" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AA12" s="8" t="s">
@@ -7531,7 +7473,7 @@
       </c>
       <c r="AB12" s="9"/>
     </row>
-    <row r="13" spans="1:28" ht="15.6">
+    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -7553,7 +7495,7 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
-      <c r="Z13" s="7">
+      <c r="Z13" s="7" t="n">
         <v>0</v>
       </c>
       <c r="AA13" s="8" t="s">
@@ -7563,7 +7505,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.6">
+    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -7577,7 +7519,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:28" ht="24">
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -7591,7 +7533,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:28" ht="15.6">
+    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -7605,7 +7547,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -7619,7 +7561,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -7633,7 +7575,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -7647,7 +7589,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -7661,7 +7603,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -7675,7 +7617,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -7689,7 +7631,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -7703,7 +7645,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -7717,7 +7659,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -7731,7 +7673,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -7745,7 +7687,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -7759,7 +7701,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -7773,7 +7715,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -7787,7 +7729,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -7801,7 +7743,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -7815,7 +7757,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
@@ -7829,7 +7771,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
@@ -7845,7 +7787,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -7859,7 +7801,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -7873,7 +7815,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -7887,7 +7829,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -7901,7 +7843,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -7915,7 +7857,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -7929,7 +7871,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -7943,7 +7885,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -7957,7 +7899,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -7971,7 +7913,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -7990,8 +7932,12 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="U1:AB1"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/梁卫鸿/旅游网—开发一梁卫鸿 .xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿 .xlsx
@@ -1,262 +1,260 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView windowWidth="19560" windowHeight="8400" tabRatio="500" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="梁卫鸿" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="罗凤海" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="张坤立" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="徐锦涛" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="马清阳" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="孙凡舒" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="程俊杰" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="张文旺" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="熊和亮" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="华柳盛" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
+    <sheet name="罗凤海" sheetId="2" r:id="rId2"/>
+    <sheet name="张坤立" sheetId="3" r:id="rId3"/>
+    <sheet name="徐锦涛" sheetId="4" r:id="rId4"/>
+    <sheet name="马清阳" sheetId="5" r:id="rId5"/>
+    <sheet name="孙凡舒" sheetId="6" r:id="rId6"/>
+    <sheet name="程俊杰" sheetId="7" r:id="rId7"/>
+    <sheet name="张文旺" sheetId="8" r:id="rId8"/>
+    <sheet name="熊和亮" sheetId="9" r:id="rId9"/>
+    <sheet name="华柳盛" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="79">
   <si>
-    <t xml:space="preserve">进度表-旅游网的设计与实现</t>
+    <t>进度表-旅游网的设计与实现</t>
   </si>
   <si>
-    <t xml:space="preserve">整体模块</t>
+    <t>整体模块</t>
   </si>
   <si>
-    <t xml:space="preserve">具体子模块</t>
+    <t>具体子模块</t>
   </si>
   <si>
-    <t xml:space="preserve">计划完成时间</t>
+    <t>计划完成时间</t>
   </si>
   <si>
-    <t xml:space="preserve">实际完成时间</t>
+    <t>实际完成时间</t>
   </si>
   <si>
-    <t xml:space="preserve">进度检查时间</t>
+    <t>进度检查时间</t>
   </si>
   <si>
-    <t xml:space="preserve">进度百分比</t>
+    <t>进度百分比</t>
   </si>
   <si>
-    <t xml:space="preserve">进度说明</t>
+    <t>进度说明</t>
   </si>
   <si>
-    <t xml:space="preserve">备注</t>
+    <t>备注</t>
   </si>
   <si>
-    <t xml:space="preserve">准备工作</t>
+    <t>准备工作</t>
   </si>
   <si>
-    <t xml:space="preserve">数据库建立</t>
+    <t>数据库建立</t>
   </si>
   <si>
-    <t xml:space="preserve">已完成</t>
+    <t>已完成</t>
   </si>
   <si>
-    <t xml:space="preserve">普通用户</t>
+    <t>普通用户</t>
   </si>
   <si>
-    <t xml:space="preserve">首页-查询所有</t>
+    <t>首页-查询所有</t>
   </si>
   <si>
-    <t xml:space="preserve">首页-登录</t>
+    <t>首页-登录</t>
   </si>
   <si>
-    <t xml:space="preserve">首页-注册</t>
+    <t>首页-注册</t>
   </si>
   <si>
-    <t xml:space="preserve">首页-超链接功能的实现</t>
+    <t>首页-超链接功能的实现</t>
   </si>
   <si>
-    <t xml:space="preserve">404，映射错误（以解决）</t>
+    <t>404，映射错误（以解决）</t>
   </si>
   <si>
-    <t xml:space="preserve">首页-加入购物车功能的实现</t>
+    <t>首页-加入购物车功能的实现</t>
   </si>
   <si>
-    <t xml:space="preserve">未完成</t>
+    <t>未完成</t>
   </si>
   <si>
-    <t xml:space="preserve">首页-结算功能的实现</t>
+    <t>首页-结算功能的实现</t>
   </si>
   <si>
-    <t xml:space="preserve">境内游-查询</t>
+    <t>境内游-查询</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t xml:space="preserve">境内游-超链接的实现</t>
+    <t>境内游-超链接的实现</t>
   </si>
   <si>
-    <t xml:space="preserve">境内游-加入购物车</t>
+    <t>境内游-加入购物车</t>
   </si>
   <si>
-    <t xml:space="preserve">境内游-结算功能</t>
+    <t>境内游-结算功能</t>
   </si>
   <si>
-    <t xml:space="preserve">境内游-分页</t>
+    <t>境内游-分页</t>
   </si>
   <si>
-    <t xml:space="preserve">境外游-超链接的实现</t>
+    <t>境外游-超链接的实现</t>
   </si>
   <si>
-    <t xml:space="preserve">境外游-加入购物车</t>
+    <t>境外游-加入购物车</t>
   </si>
   <si>
-    <t xml:space="preserve">境外游-结算功能</t>
+    <t>境外游-结算功能</t>
   </si>
   <si>
-    <t xml:space="preserve">境外游-分页</t>
+    <t>境外游-分页</t>
   </si>
   <si>
-    <t xml:space="preserve">热门游-超链接的实现</t>
+    <t>热门游-超链接的实现</t>
   </si>
   <si>
-    <t xml:space="preserve">热门游-加入购物车</t>
+    <t>热门游-加入购物车</t>
   </si>
   <si>
-    <t xml:space="preserve">热门游-结算功能</t>
+    <t>热门游-结算功能</t>
   </si>
   <si>
-    <t xml:space="preserve">热门游-分页</t>
+    <t>热门游-分页</t>
   </si>
   <si>
-    <t xml:space="preserve">团购游-超链接的实现</t>
+    <t>团购游-超链接的实现</t>
   </si>
   <si>
-    <t xml:space="preserve">团购游-加入购物车</t>
+    <t>团购游-加入购物车</t>
   </si>
   <si>
-    <t xml:space="preserve">团购游-结算功能</t>
+    <t>团购游-结算功能</t>
   </si>
   <si>
-    <t xml:space="preserve">团购游-分页</t>
+    <t>团购游-分页</t>
   </si>
   <si>
-    <t xml:space="preserve">购物车-分页</t>
+    <t>购物车-分页</t>
   </si>
   <si>
-    <t xml:space="preserve">购物车-删除</t>
+    <t>购物车-删除</t>
   </si>
   <si>
-    <t xml:space="preserve">购物车-下单</t>
+    <t>购物车-下单</t>
   </si>
   <si>
-    <t xml:space="preserve">填写订单</t>
+    <t>填写订单</t>
   </si>
   <si>
-    <t xml:space="preserve">确认订单</t>
+    <t>确认订单</t>
   </si>
   <si>
-    <t xml:space="preserve">结算</t>
+    <t>结算</t>
   </si>
   <si>
-    <t xml:space="preserve">管理员</t>
+    <t>管理员</t>
   </si>
   <si>
-    <t xml:space="preserve">管理员-登录</t>
+    <t>管理员-登录</t>
   </si>
   <si>
-    <t xml:space="preserve">管理员-退出</t>
+    <t>管理员-退出</t>
   </si>
   <si>
-    <t xml:space="preserve">管理员-添加旅游路线类型</t>
+    <t>管理员-添加旅游路线类型</t>
   </si>
   <si>
-    <t xml:space="preserve">管理员-查询旅游路线类型</t>
+    <t>管理员-查询旅游路线类型</t>
   </si>
   <si>
-    <t xml:space="preserve">管理员-查询旅游路线类型-分页</t>
+    <t>管理员-查询旅游路线类型-分页</t>
   </si>
   <si>
-    <t xml:space="preserve">管理员-修改旅游路线类型</t>
+    <t>管理员-修改旅游路线类型</t>
   </si>
   <si>
-    <t xml:space="preserve">管理员-添加旅游路线</t>
+    <t>管理员-添加旅游路线</t>
   </si>
   <si>
-    <t xml:space="preserve">管理员-查询旅游路线</t>
+    <t>管理员-查询旅游路线</t>
   </si>
   <si>
-    <t xml:space="preserve">管理员-查询旅游路线-分页</t>
+    <t>管理员-查询旅游路线-分页</t>
   </si>
   <si>
-    <t xml:space="preserve">后期优化</t>
+    <t>后期优化</t>
   </si>
   <si>
-    <t xml:space="preserve">2019/6.24</t>
+    <t>2019/6.24</t>
   </si>
   <si>
-    <t xml:space="preserve">唯一键不知道如何设置（已解决）</t>
+    <t>唯一键不知道如何设置（已解决）</t>
   </si>
   <si>
-    <t xml:space="preserve">已完 成</t>
+    <t>已完 成</t>
   </si>
   <si>
-    <t xml:space="preserve">进度控制表-文件共享系统的设计与实现</t>
+    <t>跳转出现问题（已解决）</t>
   </si>
   <si>
-    <t xml:space="preserve">21点</t>
+    <t>进度控制表-文件共享系统的设计与实现</t>
   </si>
   <si>
-    <t xml:space="preserve">外键未设</t>
+    <t>21点</t>
   </si>
   <si>
-    <t xml:space="preserve">需求分析说明书</t>
+    <t>外键未设</t>
   </si>
   <si>
-    <t xml:space="preserve">系统设计说明书（含数据库词典）</t>
+    <t>需求分析说明书</t>
   </si>
   <si>
-    <t xml:space="preserve">没什么问题</t>
+    <t>系统设计说明书（含数据库词典）</t>
   </si>
   <si>
-    <t xml:space="preserve">前台</t>
+    <t>没什么问题</t>
   </si>
   <si>
-    <t xml:space="preserve">登录界面</t>
+    <t>前台</t>
   </si>
   <si>
-    <t xml:space="preserve">图片加载不出来（已解决）</t>
+    <t>登录界面</t>
   </si>
   <si>
-    <t xml:space="preserve">主页面界面</t>
+    <t>图片加载不出来（已解决）</t>
   </si>
   <si>
-    <t xml:space="preserve">后台</t>
+    <t>主页面界面</t>
   </si>
   <si>
-    <t xml:space="preserve">登录功能的实现</t>
+    <t>后台</t>
   </si>
   <si>
-    <t xml:space="preserve">主页面的头部功能的实现</t>
+    <t>登录功能的实现</t>
   </si>
   <si>
-    <t xml:space="preserve">主页面的中部功能的实现</t>
+    <t>主页面的头部功能的实现</t>
   </si>
   <si>
-    <t xml:space="preserve">主页面的尾功能的实现</t>
+    <t>主页面的中部功能的实现</t>
   </si>
   <si>
-    <t xml:space="preserve">管理员登录与普通员工登录</t>
+    <t>主页面的尾功能的实现</t>
   </si>
   <si>
-    <t xml:space="preserve">优化几个模块的功能</t>
+    <t>管理员登录与普通员工登录</t>
+  </si>
+  <si>
+    <t>优化几个模块的功能</t>
   </si>
   <si>
     <r>
@@ -264,146 +262,275 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">！！！编码一定要加注释，否则后期自己改都很麻烦，</t>
+      <t>！！！编码一定要加注释，否则后期自己改都很麻烦，</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">周末两天要进行优化测试以及一些功能的补充</t>
+      <t>周末两天要进行优化测试以及一些功能的补充</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-804]YYYY\-M\-D"/>
-    <numFmt numFmtId="166" formatCode="[$-804]H:MM"/>
-    <numFmt numFmtId="167" formatCode="0%"/>
-    <numFmt numFmtId="168" formatCode="[$-804]H:MM:SS"/>
+  <numFmts count="8">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="[$-804]h:mm"/>
+    <numFmt numFmtId="178" formatCode="[$-804]yyyy\-m\-d"/>
+    <numFmt numFmtId="179" formatCode="[$-804]h:mm:ss"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FF000000"/>
+      <name val="隶书"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="26"/>
-      <color rgb="FF000000"/>
-      <name val="隶书"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0066CC"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF33CCCC"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,202 +543,892 @@
         <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="11">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="50">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="常规 2" xfId="20"/>
+  <cellStyles count="50">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="99.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="27.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.45" customWidth="1"/>
+    <col min="5" max="5" width="13.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.0083333333333" customWidth="1"/>
+    <col min="7" max="7" width="30.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="99.8916666666667" customWidth="1"/>
+    <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="32.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="33.75" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +1440,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -649,23 +1466,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>43637</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>43637</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="14">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -673,23 +1490,23 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>43638</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>43638</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="14">
         <v>0.875</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -697,21 +1514,21 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>43638</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>43640</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="14">
         <v>0.875</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -719,21 +1536,21 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" ht="16.5" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>43638</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>43640</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="14">
         <v>0.875</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -741,21 +1558,21 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" ht="16.5" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="5">
         <v>43639</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="5">
         <v>43641</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="14">
         <v>0.875</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="7">
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -765,19 +1582,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" ht="16.5" spans="1:8">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>43639</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="14">
         <v>0.875</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="7">
         <v>0</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -785,7 +1602,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" ht="16.5" spans="1:8">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -799,7 +1616,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" ht="16.5" spans="1:8">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -815,7 +1632,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" ht="16.5" spans="1:8">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -829,7 +1646,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" ht="16.5" spans="1:8">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -843,7 +1660,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" ht="16.5" spans="1:8">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -857,7 +1674,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" ht="16.5" spans="1:8">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -871,7 +1688,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" ht="16.5" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -885,7 +1702,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" ht="16.5" spans="1:8">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -899,7 +1716,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" ht="16.5" spans="1:8">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -913,7 +1730,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" ht="16.5" spans="1:8">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -927,7 +1744,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" ht="16.5" spans="1:8">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -941,7 +1758,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" ht="16.5" spans="1:8">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -955,7 +1772,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" ht="16.5" spans="1:8">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -969,7 +1786,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" ht="16.5" spans="1:8">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -983,7 +1800,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" ht="16.5" spans="1:8">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -997,7 +1814,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" ht="16.5" spans="1:8">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -1011,7 +1828,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" ht="16.5" spans="1:8">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -1025,7 +1842,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" ht="16.5" spans="1:8">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -1039,7 +1856,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" ht="16.5" spans="1:8">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -1053,7 +1870,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" ht="16.5" spans="1:8">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -1067,7 +1884,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" ht="16.5" spans="1:8">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -1081,7 +1898,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" ht="16.5" spans="1:8">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -1095,7 +1912,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" ht="16.5" spans="1:8">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -1109,7 +1926,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" ht="16.5" spans="1:8">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
@@ -1123,23 +1940,23 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" ht="16.5" spans="1:8">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" s="5">
         <v>43641</v>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="D33" s="5">
         <v>43641</v>
       </c>
-      <c r="E33" s="6" t="n">
+      <c r="E33" s="14">
         <v>0.875</v>
       </c>
-      <c r="F33" s="7" t="n">
+      <c r="F33" s="7">
         <v>1</v>
       </c>
       <c r="G33" s="8" t="s">
@@ -1147,7 +1964,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" ht="16.5" spans="1:8">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -1161,7 +1978,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" ht="16.5" spans="1:8">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -1175,7 +1992,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" ht="16.5" spans="1:8">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -1189,7 +2006,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" ht="16.5" spans="1:8">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -1203,7 +2020,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" ht="16.5" spans="1:8">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -1217,7 +2034,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" ht="16.5" spans="1:8">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -1231,7 +2048,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" ht="16.5" spans="1:8">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -1245,7 +2062,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" ht="16.5" spans="1:8">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -1259,7 +2076,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" ht="16.5" spans="1:8">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -1273,7 +2090,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" ht="16.5" spans="1:8">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -1287,135 +2104,129 @@
       </c>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" ht="16.5" spans="1:8">
       <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18"/>
-    </row>
-    <row r="45" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="26"/>
+    </row>
+    <row r="45" ht="16.5" spans="1:8">
       <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="26"/>
+    </row>
+    <row r="46" ht="16.5" spans="1:8">
       <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="18"/>
-    </row>
-    <row r="47" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="26"/>
+    </row>
+    <row r="47" ht="16.5" spans="1:8">
       <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="18"/>
-    </row>
-    <row r="48" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="26"/>
+    </row>
+    <row r="48" ht="16.5" spans="1:8">
       <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="18"/>
-    </row>
-    <row r="49" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="22"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="26"/>
+    </row>
+    <row r="49" ht="16.5" spans="1:8">
       <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="18"/>
-    </row>
-    <row r="50" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="26"/>
+    </row>
+    <row r="50" ht="16.5" spans="1:8">
       <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="18"/>
-    </row>
-    <row r="51" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="26"/>
+    </row>
+    <row r="51" ht="16.5" spans="1:8">
       <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="18"/>
-    </row>
-    <row r="52" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="26"/>
+    </row>
+    <row r="52" ht="16.5" spans="1:8">
       <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="18"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="17.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.45" customWidth="1"/>
+    <col min="5" max="5" width="13.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.0083333333333" customWidth="1"/>
+    <col min="7" max="7" width="38.1" customWidth="1"/>
+    <col min="8" max="8" width="131.108333333333" customWidth="1"/>
+    <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="32.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="33.75" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +2238,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="27" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1453,23 +2264,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>43637</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>43637</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -1477,7 +2288,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1486,555 +2297,579 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
+      <c r="C5" s="5">
+        <v>43641</v>
+      </c>
+      <c r="D5" s="5">
+        <v>43641</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
       <c r="G5" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" ht="16.5" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="5">
+        <v>43641</v>
+      </c>
+      <c r="D6" s="5">
+        <v>43642</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
       <c r="G6" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" ht="24" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" ht="24" spans="1:8">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" ht="16.5" spans="1:8">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="38.25" customHeight="1" spans="1:8">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" ht="16.5" spans="1:8">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" ht="16.5" spans="1:8">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="7"/>
       <c r="G12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" ht="16.5" spans="1:8">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="7"/>
       <c r="G13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" ht="16.5" spans="1:8">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="7"/>
       <c r="G14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" ht="16.5" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="7"/>
       <c r="G15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" ht="16.5" spans="1:8">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" ht="16.5" spans="1:8">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="7"/>
       <c r="G17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" ht="16.5" spans="1:8">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="7"/>
       <c r="G18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" ht="16.5" spans="1:8">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="7"/>
       <c r="G19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" ht="16.5" spans="1:8">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" ht="16.5" spans="1:8">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="7"/>
       <c r="G21" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" ht="16.5" spans="1:8">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="7"/>
       <c r="G22" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" ht="16.5" spans="1:8">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="7"/>
       <c r="G23" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" ht="16.5" spans="1:8">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="7"/>
       <c r="G24" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" ht="16.5" spans="1:8">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" ht="16.5" spans="1:8">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="7"/>
       <c r="G26" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" ht="16.5" spans="1:8">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="7"/>
       <c r="G27" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" ht="16.5" spans="1:8">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="7"/>
       <c r="G28" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" ht="16.5" spans="1:8">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="7"/>
       <c r="G29" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" ht="16.5" spans="1:8">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="7"/>
       <c r="G30" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" ht="16.5" spans="1:8">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="7"/>
       <c r="G31" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" ht="16.5" spans="1:8">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="7"/>
       <c r="G32" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" ht="16.5" spans="1:8">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="7"/>
+      <c r="C33" s="5">
+        <v>43642</v>
+      </c>
+      <c r="D33" s="5">
+        <v>43642</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
       <c r="G33" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" ht="16.5" spans="1:8">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="6"/>
       <c r="F34" s="7"/>
       <c r="G34" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" ht="24" spans="1:8">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="7"/>
       <c r="G35" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" ht="24" spans="1:8">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="7"/>
       <c r="G36" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" ht="24" spans="1:8">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="7"/>
       <c r="G37" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" ht="24" spans="1:8">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="7"/>
       <c r="G38" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" ht="16.5" spans="1:8">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="6"/>
       <c r="F39" s="7"/>
       <c r="G39" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" ht="16.5" spans="1:8">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="E40" s="6"/>
       <c r="F40" s="7"/>
       <c r="G40" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" ht="24" spans="1:8">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="7"/>
       <c r="G41" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" ht="24" spans="1:8">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="6"/>
       <c r="F42" s="7"/>
       <c r="G42" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" ht="16.5" spans="1:8">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="E43" s="6"/>
       <c r="F43" s="7"/>
       <c r="G43" s="8" t="s">
         <v>19</v>
@@ -2045,41 +2880,40 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G43">
+      <formula1>"已完成,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
+    <col min="1" max="1" width="14.45" customWidth="1"/>
+    <col min="2" max="2" width="17.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.45" customWidth="1"/>
+    <col min="5" max="5" width="13.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.0083333333333" customWidth="1"/>
+    <col min="7" max="7" width="38.1" customWidth="1"/>
+    <col min="8" max="8" width="131.108333333333" customWidth="1"/>
+    <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="32.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="33.75" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2091,7 +2925,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="27" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2117,23 +2951,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>43637</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>43637</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="14">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -2141,23 +2975,23 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>43638</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>43638</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="14">
         <v>0.875</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -2165,19 +2999,19 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>43639</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="14">
         <v>0.875</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -2185,21 +3019,21 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" ht="16.5" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>43640</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>43640</v>
       </c>
-      <c r="E6" s="19" t="n">
+      <c r="E6" s="21">
         <v>0.875</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -2207,21 +3041,21 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" ht="24" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="5">
         <v>43642</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="5">
         <v>43642</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="14">
         <v>0.875</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="7">
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -2229,19 +3063,19 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" ht="24" spans="1:8">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>43642</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="14">
         <v>0.875</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="7">
         <v>0.4</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -2249,21 +3083,21 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" ht="16.5" spans="1:8">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="5">
         <v>43641</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="5">
         <v>43641</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="14">
         <v>0.875</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="7">
         <v>0.5</v>
       </c>
       <c r="G9" s="8" t="s">
@@ -2271,21 +3105,21 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="38.25" customHeight="1" spans="1:8">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="5">
         <v>43641</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="5">
         <v>43641</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="14">
         <v>0.875</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="7">
         <v>1</v>
       </c>
       <c r="G10" s="8" t="s">
@@ -2293,21 +3127,21 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" ht="16.5" spans="1:8">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="5">
         <v>43642</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="5">
         <v>43642</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="14">
         <v>0.875</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="7">
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -2315,7 +3149,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" ht="16.5" spans="1:8">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -2329,7 +3163,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" ht="16.5" spans="1:8">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -2343,21 +3177,21 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" ht="16.5" spans="1:8">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="5">
         <v>43641</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="5">
         <v>43641</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="14">
         <v>0.875</v>
       </c>
-      <c r="F14" s="7" t="n">
+      <c r="F14" s="7">
         <v>1</v>
       </c>
       <c r="G14" s="8" t="s">
@@ -2365,21 +3199,21 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" ht="16.5" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="5">
         <v>43642</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="5">
         <v>43642</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="14">
         <v>0.875</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="7">
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
@@ -2387,7 +3221,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" ht="16.5" spans="1:8">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -2401,7 +3235,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" ht="16.5" spans="1:8">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -2415,21 +3249,21 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" ht="16.5" spans="1:8">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="5">
         <v>43641</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="5">
         <v>43641</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="14">
         <v>0.875</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="7">
         <v>1</v>
       </c>
       <c r="G18" s="8" t="s">
@@ -2437,21 +3271,21 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" ht="16.5" spans="1:8">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="5">
         <v>43642</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="5">
         <v>43642</v>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E19" s="14">
         <v>0.875</v>
       </c>
-      <c r="F19" s="7" t="n">
+      <c r="F19" s="7">
         <v>1</v>
       </c>
       <c r="G19" s="8" t="s">
@@ -2459,7 +3293,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" ht="16.5" spans="1:8">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -2473,7 +3307,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" ht="16.5" spans="1:8">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -2487,21 +3321,21 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" ht="16.5" spans="1:8">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="5">
         <v>43641</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="5">
         <v>43641</v>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="E22" s="14">
         <v>0.875</v>
       </c>
-      <c r="F22" s="7" t="n">
+      <c r="F22" s="7">
         <v>1</v>
       </c>
       <c r="G22" s="8" t="s">
@@ -2509,21 +3343,21 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" ht="16.5" spans="1:8">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="5">
         <v>43642</v>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="D23" s="5">
         <v>43642</v>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="E23" s="14">
         <v>0.875</v>
       </c>
-      <c r="F23" s="7" t="n">
+      <c r="F23" s="7">
         <v>1</v>
       </c>
       <c r="G23" s="8" t="s">
@@ -2531,7 +3365,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" ht="16.5" spans="1:8">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -2545,7 +3379,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" ht="16.5" spans="1:8">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -2559,7 +3393,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" ht="16.5" spans="1:8">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -2573,7 +3407,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" ht="16.5" spans="1:8">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -2587,7 +3421,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" ht="16.5" spans="1:8">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -2601,7 +3435,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" ht="16.5" spans="1:8">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -2615,19 +3449,19 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" ht="16.5" spans="1:8">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="5" t="n">
+      <c r="C30" s="5">
         <v>43642</v>
       </c>
       <c r="D30" s="5"/>
-      <c r="E30" s="6" t="n">
+      <c r="E30" s="14">
         <v>0.875</v>
       </c>
-      <c r="F30" s="7" t="n">
+      <c r="F30" s="7">
         <v>0.5</v>
       </c>
       <c r="G30" s="8" t="s">
@@ -2635,7 +3469,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" ht="16.5" spans="1:8">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -2649,21 +3483,21 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" ht="16.5" spans="1:8">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="5" t="n">
+      <c r="C32" s="5">
         <v>43641</v>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="D32" s="5">
         <v>43641</v>
       </c>
-      <c r="E32" s="6" t="n">
+      <c r="E32" s="14">
         <v>0.875</v>
       </c>
-      <c r="F32" s="7" t="n">
+      <c r="F32" s="7">
         <v>1</v>
       </c>
       <c r="G32" s="8" t="s">
@@ -2671,23 +3505,23 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" ht="16.5" spans="1:8">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" s="5">
         <v>43641</v>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="D33" s="5">
         <v>43641</v>
       </c>
-      <c r="E33" s="6" t="n">
+      <c r="E33" s="14">
         <v>0.875</v>
       </c>
-      <c r="F33" s="7" t="n">
+      <c r="F33" s="7">
         <v>1</v>
       </c>
       <c r="G33" s="8" t="s">
@@ -2695,7 +3529,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" ht="16.5" spans="1:8">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -2709,19 +3543,19 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" ht="24" spans="1:8">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="5" t="n">
+      <c r="C35" s="5">
         <v>43642</v>
       </c>
       <c r="D35" s="5"/>
-      <c r="E35" s="6" t="n">
+      <c r="E35" s="14">
         <v>0.875</v>
       </c>
-      <c r="F35" s="7" t="n">
+      <c r="F35" s="7">
         <v>0.6</v>
       </c>
       <c r="G35" s="8" t="s">
@@ -2729,7 +3563,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" ht="24" spans="1:8">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -2743,7 +3577,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" ht="24" spans="1:8">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -2757,7 +3591,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" ht="24" spans="1:8">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -2771,7 +3605,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" ht="16.5" spans="1:8">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -2785,7 +3619,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" ht="16.5" spans="1:8">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -2799,7 +3633,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" ht="24" spans="1:8">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -2813,7 +3647,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" ht="24" spans="1:8">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -2827,7 +3661,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" ht="16.5" spans="1:8">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -2845,41 +3679,35 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="17.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.45" customWidth="1"/>
+    <col min="5" max="5" width="13.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.0083333333333" customWidth="1"/>
+    <col min="7" max="7" width="38.1" customWidth="1"/>
+    <col min="8" max="8" width="131.108333333333" customWidth="1"/>
+    <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="32.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="33.75" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2891,7 +3719,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="27" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2917,23 +3745,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>43637</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>43637</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="14">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -2941,23 +3769,23 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>43638</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>43638</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="14">
         <v>0.875</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -2965,19 +3793,19 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>43639</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="14">
         <v>0.875</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -2985,21 +3813,21 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" ht="16.5" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>43640</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>43640</v>
       </c>
-      <c r="E6" s="19" t="n">
+      <c r="E6" s="21">
         <v>0.875</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -3007,21 +3835,21 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" ht="24" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="5">
         <v>43642</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="5">
         <v>43642</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="14">
         <v>0.875</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="7">
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -3029,19 +3857,19 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" ht="24" spans="1:8">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>43642</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="14">
         <v>0.875</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="7">
         <v>0.4</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -3049,21 +3877,21 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" ht="16.5" spans="1:8">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="5">
         <v>43641</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="5">
         <v>43641</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="14">
         <v>0.875</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="7">
         <v>0.5</v>
       </c>
       <c r="G9" s="8" t="s">
@@ -3071,21 +3899,21 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="38.25" customHeight="1" spans="1:8">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="5">
         <v>43641</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="5">
         <v>43641</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="14">
         <v>0.875</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="7">
         <v>0.7</v>
       </c>
       <c r="G10" s="8" t="s">
@@ -3093,21 +3921,21 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" ht="16.5" spans="1:8">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="5">
         <v>43642</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="5">
         <v>43642</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="14">
         <v>0.875</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="7">
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -3115,7 +3943,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" ht="16.5" spans="1:8">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -3129,7 +3957,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" ht="16.5" spans="1:8">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -3143,21 +3971,21 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" ht="16.5" spans="1:8">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="5">
         <v>43641</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="5">
         <v>43641</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="14">
         <v>0.875</v>
       </c>
-      <c r="F14" s="7" t="n">
+      <c r="F14" s="7">
         <v>1</v>
       </c>
       <c r="G14" s="8" t="s">
@@ -3165,21 +3993,21 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" ht="16.5" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="5">
         <v>43642</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="5">
         <v>43642</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="14">
         <v>0.875</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="7">
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
@@ -3187,7 +4015,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" ht="16.5" spans="1:8">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -3201,7 +4029,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" ht="16.5" spans="1:8">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -3215,21 +4043,21 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" ht="16.5" spans="1:8">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="5">
         <v>43641</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="5">
         <v>43641</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="14">
         <v>0.875</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="7">
         <v>1</v>
       </c>
       <c r="G18" s="8" t="s">
@@ -3237,21 +4065,21 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" ht="16.5" spans="1:8">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="5">
         <v>43642</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="5">
         <v>43642</v>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E19" s="14">
         <v>0.875</v>
       </c>
-      <c r="F19" s="7" t="n">
+      <c r="F19" s="7">
         <v>1</v>
       </c>
       <c r="G19" s="8" t="s">
@@ -3259,7 +4087,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" ht="16.5" spans="1:8">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -3273,7 +4101,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" ht="16.5" spans="1:8">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -3287,21 +4115,21 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" ht="16.5" spans="1:8">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="5">
         <v>43641</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="5">
         <v>43641</v>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="E22" s="14">
         <v>0.875</v>
       </c>
-      <c r="F22" s="7" t="n">
+      <c r="F22" s="7">
         <v>1</v>
       </c>
       <c r="G22" s="8" t="s">
@@ -3309,21 +4137,21 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" ht="16.5" spans="1:8">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="5">
         <v>43642</v>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="D23" s="5">
         <v>43642</v>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="E23" s="14">
         <v>0.875</v>
       </c>
-      <c r="F23" s="7" t="n">
+      <c r="F23" s="7">
         <v>1</v>
       </c>
       <c r="G23" s="8" t="s">
@@ -3331,7 +4159,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" ht="16.5" spans="1:8">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -3345,7 +4173,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" ht="16.5" spans="1:8">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -3359,7 +4187,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" ht="16.5" spans="1:8">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -3373,7 +4201,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" ht="16.5" spans="1:8">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -3387,7 +4215,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" ht="16.5" spans="1:8">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -3401,7 +4229,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" ht="16.5" spans="1:8">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -3415,21 +4243,21 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" ht="16.5" spans="1:8">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="7"/>
       <c r="G30" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" ht="16.5" spans="1:8">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -3443,39 +4271,39 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" ht="16.5" spans="1:8">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="5" t="n">
+      <c r="C32" s="5">
         <v>43641</v>
       </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="7"/>
       <c r="G32" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" ht="16.5" spans="1:8">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" s="5">
         <v>43641</v>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="D33" s="5">
         <v>43641</v>
       </c>
-      <c r="E33" s="6" t="n">
+      <c r="E33" s="14">
         <v>0.875</v>
       </c>
-      <c r="F33" s="7" t="n">
+      <c r="F33" s="7">
         <v>1</v>
       </c>
       <c r="G33" s="8" t="s">
@@ -3483,7 +4311,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" ht="16.5" spans="1:8">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -3497,19 +4325,19 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" ht="24" spans="1:8">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="5" t="n">
+      <c r="C35" s="5">
         <v>43642</v>
       </c>
       <c r="D35" s="5"/>
-      <c r="E35" s="6" t="n">
+      <c r="E35" s="14">
         <v>0.875</v>
       </c>
-      <c r="F35" s="7" t="n">
+      <c r="F35" s="7">
         <v>0.5</v>
       </c>
       <c r="G35" s="8" t="s">
@@ -3517,7 +4345,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" ht="24" spans="1:8">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -3531,7 +4359,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" ht="24" spans="1:8">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -3545,7 +4373,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" ht="24" spans="1:8">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -3559,7 +4387,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" ht="16.5" spans="1:8">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -3573,7 +4401,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" ht="16.5" spans="1:8">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -3587,7 +4415,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" ht="24" spans="1:8">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -3601,7 +4429,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" ht="24" spans="1:8">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -3615,7 +4443,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" ht="16.5" spans="1:8">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -3633,41 +4461,35 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="17.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.45" customWidth="1"/>
+    <col min="5" max="5" width="13.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.0083333333333" customWidth="1"/>
+    <col min="7" max="7" width="38.1" customWidth="1"/>
+    <col min="8" max="8" width="131.108333333333" customWidth="1"/>
+    <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="32.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="33.75" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3679,7 +4501,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="27" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3705,23 +4527,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>43637</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>43637</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="14">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -3729,7 +4551,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -3739,13 +4561,13 @@
       <c r="C4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>43640</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="14">
         <v>0.875</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -3753,21 +4575,21 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>43640</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>43641</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="14">
         <v>0.875</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -3775,21 +4597,21 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" ht="16.5" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>43641</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>43641</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="14">
         <v>0.875</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -3797,21 +4619,21 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" ht="24" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="5">
         <v>43641</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="5">
         <v>43641</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="14">
         <v>0.875</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="7">
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -3819,7 +4641,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" ht="24" spans="1:8">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -3833,7 +4655,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" ht="16.5" spans="1:8">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -3847,35 +4669,35 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="38.25" customHeight="1" spans="1:8">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" ht="16.5" spans="1:8">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" ht="16.5" spans="1:8">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -3889,7 +4711,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" ht="16.5" spans="1:8">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -3903,7 +4725,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" ht="16.5" spans="1:8">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -3917,21 +4739,21 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" ht="16.5" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="7"/>
       <c r="G15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" ht="16.5" spans="1:8">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -3945,7 +4767,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" ht="16.5" spans="1:8">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -3959,7 +4781,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" ht="16.5" spans="1:8">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -3973,21 +4795,21 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" ht="16.5" spans="1:8">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="7"/>
       <c r="G19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" ht="16.5" spans="1:8">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -4001,7 +4823,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" ht="16.5" spans="1:8">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -4015,7 +4837,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" ht="16.5" spans="1:8">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -4029,21 +4851,21 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" ht="16.5" spans="1:8">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="7"/>
       <c r="G23" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" ht="16.5" spans="1:8">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -4057,7 +4879,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" ht="16.5" spans="1:8">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -4071,7 +4893,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" ht="16.5" spans="1:8">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -4085,7 +4907,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" ht="16.5" spans="1:8">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -4099,7 +4921,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" ht="16.5" spans="1:8">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -4113,7 +4935,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" ht="16.5" spans="1:8">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -4127,7 +4949,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" ht="16.5" spans="1:8">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -4141,7 +4963,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" ht="16.5" spans="1:8">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -4155,7 +4977,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" ht="16.5" spans="1:8">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
@@ -4169,7 +4991,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" ht="16.5" spans="1:8">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
@@ -4178,28 +5000,28 @@
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="7"/>
       <c r="G33" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" ht="16.5" spans="1:8">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="7"/>
       <c r="G34" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" ht="24" spans="1:8">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -4213,7 +5035,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" ht="24" spans="1:8">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -4227,7 +5049,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" ht="24" spans="1:8">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -4241,7 +5063,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" ht="24" spans="1:8">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -4255,7 +5077,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" ht="16.5" spans="1:8">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -4269,7 +5091,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" ht="16.5" spans="1:8">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -4283,7 +5105,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" ht="24" spans="1:8">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -4297,7 +5119,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" ht="24" spans="1:8">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -4311,7 +5133,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" ht="16.5" spans="1:8">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -4329,41 +5151,35 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="21.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.45" customWidth="1"/>
+    <col min="5" max="5" width="13.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.0083333333333" customWidth="1"/>
+    <col min="7" max="7" width="38.1" customWidth="1"/>
+    <col min="8" max="8" width="131.108333333333" customWidth="1"/>
+    <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="32.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="33.75" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4375,7 +5191,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="27" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4401,23 +5217,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>43638</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>43638</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -4427,7 +5243,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -4436,28 +5252,28 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>43640</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>43641</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="6">
         <v>0.875</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -4465,21 +5281,21 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" ht="16.5" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>43641</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>43641</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="6">
         <v>0.875</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -4487,520 +5303,538 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" ht="16.5" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" ht="16.5" spans="1:8">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" ht="16.5" spans="1:8">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="38.25" customHeight="1" spans="1:8">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" ht="16.5" spans="1:8">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" ht="16.5" spans="1:8">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="7"/>
       <c r="G12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" ht="16.5" spans="1:8">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="7"/>
       <c r="G13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" ht="16.5" spans="1:8">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="7"/>
       <c r="G14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" ht="16.5" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="7"/>
       <c r="G15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" ht="16.5" spans="1:8">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" ht="16.5" spans="1:8">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="7"/>
       <c r="G17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" ht="16.5" spans="1:8">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="7"/>
       <c r="G18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" ht="16.5" spans="1:8">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="7"/>
       <c r="G19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" ht="16.5" spans="1:8">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" ht="16.5" spans="1:8">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="7"/>
       <c r="G21" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" ht="16.5" spans="1:8">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="7"/>
       <c r="G22" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" ht="16.5" spans="1:8">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="7"/>
       <c r="G23" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" ht="16.5" spans="1:8">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="7"/>
       <c r="G24" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" ht="16.5" spans="1:8">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" ht="16.5" spans="1:8">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="7"/>
       <c r="G26" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" ht="16.5" spans="1:8">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="7"/>
       <c r="G27" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" ht="16.5" spans="1:8">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="7"/>
       <c r="G28" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" ht="16.5" spans="1:8">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="7"/>
       <c r="G29" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" ht="16.5" spans="1:8">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="7"/>
       <c r="G30" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" ht="16.5" spans="1:8">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="7"/>
       <c r="G31" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" ht="16.5" spans="1:8">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="7"/>
       <c r="G32" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" ht="16.5" spans="1:8">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="7"/>
+      <c r="C33" s="5">
+        <v>43642</v>
+      </c>
+      <c r="D33" s="5">
+        <v>43642</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
       <c r="G33" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="1:8">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="5">
+        <v>43642</v>
+      </c>
       <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="7"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7">
+        <v>0.5</v>
+      </c>
       <c r="G34" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" ht="16.5" spans="1:8">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="7"/>
       <c r="G35" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" ht="16.5" spans="1:8">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="5"/>
+      <c r="C36" s="5">
+        <v>43642</v>
+      </c>
       <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="7"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7">
+        <v>0.5</v>
+      </c>
       <c r="G36" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" ht="24" spans="1:8">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="7"/>
       <c r="G37" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" ht="16.5" spans="1:8">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="7"/>
       <c r="G38" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" ht="16.5" spans="1:8">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="6"/>
       <c r="F39" s="7"/>
       <c r="G39" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" ht="16.5" spans="1:8">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="E40" s="6"/>
       <c r="F40" s="7"/>
       <c r="G40" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" ht="16.5" spans="1:8">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="7"/>
       <c r="G41" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" ht="16.5" spans="1:8">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="6"/>
       <c r="F42" s="7"/>
       <c r="G42" s="8" t="s">
         <v>19</v>
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" ht="16.5" spans="1:8">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="E43" s="6"/>
       <c r="F43" s="7"/>
       <c r="G43" s="8" t="s">
         <v>19</v>
@@ -5011,41 +5845,40 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G43">
+      <formula1>"已完成,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="17.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.45" customWidth="1"/>
+    <col min="5" max="5" width="13.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.0083333333333" customWidth="1"/>
+    <col min="7" max="7" width="38.1" customWidth="1"/>
+    <col min="8" max="8" width="131.108333333333" customWidth="1"/>
+    <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="32.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="33.75" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5057,7 +5890,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="27" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5083,23 +5916,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>43637</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>43637</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="14">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -5107,7 +5940,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -5123,7 +5956,7 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -5137,7 +5970,7 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" ht="16.5" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -5151,7 +5984,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" ht="24" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -5165,7 +5998,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" ht="24" spans="1:8">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -5179,7 +6012,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" ht="16.5" spans="1:8">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -5193,7 +6026,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="38.25" customHeight="1" spans="1:8">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -5207,7 +6040,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" ht="16.5" spans="1:8">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -5221,7 +6054,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" ht="16.5" spans="1:8">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -5235,7 +6068,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" ht="16.5" spans="1:8">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -5249,7 +6082,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" ht="16.5" spans="1:8">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -5263,7 +6096,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" ht="16.5" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -5277,7 +6110,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" ht="16.5" spans="1:8">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -5291,7 +6124,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" ht="16.5" spans="1:8">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -5305,7 +6138,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" ht="16.5" spans="1:8">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -5319,7 +6152,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" ht="16.5" spans="1:8">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -5333,7 +6166,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" ht="16.5" spans="1:8">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -5347,7 +6180,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" ht="16.5" spans="1:8">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -5361,7 +6194,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" ht="16.5" spans="1:8">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -5375,7 +6208,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" ht="16.5" spans="1:8">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -5389,7 +6222,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" ht="16.5" spans="1:8">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -5403,7 +6236,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" ht="16.5" spans="1:8">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -5417,7 +6250,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" ht="16.5" spans="1:8">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -5431,7 +6264,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" ht="16.5" spans="1:8">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -5445,7 +6278,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" ht="16.5" spans="1:8">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -5459,7 +6292,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" ht="16.5" spans="1:8">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -5473,7 +6306,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" ht="16.5" spans="1:8">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -5487,7 +6320,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" ht="16.5" spans="1:8">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -5501,7 +6334,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" ht="16.5" spans="1:8">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
@@ -5515,7 +6348,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" ht="16.5" spans="1:8">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
@@ -5531,7 +6364,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" ht="16.5" spans="1:8">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -5545,7 +6378,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" ht="24" spans="1:8">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -5559,7 +6392,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" ht="24" spans="1:8">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -5573,7 +6406,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" ht="24" spans="1:8">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -5587,7 +6420,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" ht="24" spans="1:8">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -5601,7 +6434,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" ht="16.5" spans="1:8">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -5615,7 +6448,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" ht="16.5" spans="1:8">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -5629,7 +6462,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" ht="24" spans="1:8">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -5643,7 +6476,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" ht="24" spans="1:8">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -5657,7 +6490,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" ht="16.5" spans="1:8">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -5675,41 +6508,35 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="17.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.45" customWidth="1"/>
+    <col min="5" max="5" width="13.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.0083333333333" customWidth="1"/>
+    <col min="7" max="7" width="38.1" customWidth="1"/>
+    <col min="8" max="8" width="131.108333333333" customWidth="1"/>
+    <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="32.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="33.75" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5721,7 +6548,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="27" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5747,23 +6574,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>43637</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>43637</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="14">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -5771,23 +6598,23 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>43638</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>43638</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="14">
         <v>0.875</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -5795,21 +6622,21 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>43641</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>43641</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="14">
         <v>0.875</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -5817,21 +6644,21 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" ht="16.5" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>43641</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>43641</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="14">
         <v>0.875</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -5839,7 +6666,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" ht="24" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -5853,7 +6680,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" ht="24" spans="1:8">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -5867,7 +6694,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" ht="16.5" spans="1:8">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -5881,7 +6708,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="38.25" customHeight="1" spans="1:8">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -5895,7 +6722,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" ht="16.5" spans="1:8">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -5909,7 +6736,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" ht="16.5" spans="1:8">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -5923,7 +6750,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" ht="16.5" spans="1:8">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -5937,7 +6764,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" ht="16.5" spans="1:8">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -5951,7 +6778,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" ht="16.5" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -5965,7 +6792,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" ht="16.5" spans="1:8">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -5979,7 +6806,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" ht="16.5" spans="1:8">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -5993,7 +6820,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" ht="16.5" spans="1:8">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -6007,7 +6834,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" ht="16.5" spans="1:8">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -6021,7 +6848,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" ht="16.5" spans="1:8">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -6035,7 +6862,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" ht="16.5" spans="1:8">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -6049,7 +6876,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" ht="16.5" spans="1:8">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -6063,7 +6890,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" ht="16.5" spans="1:8">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -6077,7 +6904,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" ht="16.5" spans="1:8">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -6091,7 +6918,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" ht="16.5" spans="1:8">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -6105,7 +6932,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" ht="16.5" spans="1:8">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -6119,7 +6946,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" ht="16.5" spans="1:8">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -6133,7 +6960,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" ht="16.5" spans="1:8">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -6147,7 +6974,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" ht="16.5" spans="1:8">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -6161,7 +6988,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" ht="16.5" spans="1:8">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -6175,7 +7002,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" ht="16.5" spans="1:8">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -6189,7 +7016,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" ht="16.5" spans="1:8">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
@@ -6203,7 +7030,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" ht="16.5" spans="1:8">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
@@ -6219,7 +7046,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" ht="16.5" spans="1:8">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -6233,7 +7060,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" ht="24" spans="1:8">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -6247,7 +7074,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" ht="24" spans="1:8">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -6261,7 +7088,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" ht="24" spans="1:8">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -6275,7 +7102,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" ht="24" spans="1:8">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -6289,7 +7116,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" ht="16.5" spans="1:8">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -6303,7 +7130,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" ht="16.5" spans="1:8">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -6317,7 +7144,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" ht="24" spans="1:8">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -6331,7 +7158,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" ht="24" spans="1:8">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -6345,7 +7172,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" ht="16.5" spans="1:8">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -6363,41 +7190,35 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="17.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.45" customWidth="1"/>
+    <col min="5" max="5" width="13.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.0083333333333" customWidth="1"/>
+    <col min="7" max="7" width="38.1" customWidth="1"/>
+    <col min="8" max="8" width="131.108333333333" customWidth="1"/>
+    <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="32.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="33.75" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6409,7 +7230,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="27" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6435,23 +7256,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>43637</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>43637</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="14">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -6459,23 +7280,23 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="16.5" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>43638</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>43638</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="14">
         <v>0.875</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="7">
         <v>0.5</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -6483,21 +7304,21 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="16.5" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>43638</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>43640</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="14">
         <v>0.875</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -6505,7 +7326,7 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" ht="16.5" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -6519,7 +7340,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" ht="24" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -6533,7 +7354,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" ht="24" spans="1:8">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -6547,7 +7368,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" ht="16.5" spans="1:8">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -6561,7 +7382,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="38.25" customHeight="1" spans="1:8">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -6575,7 +7396,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" ht="16.5" spans="1:8">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -6589,7 +7410,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" ht="16.5" spans="1:8">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -6603,7 +7424,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" ht="16.5" spans="1:8">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -6617,7 +7438,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" ht="16.5" spans="1:8">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -6631,7 +7452,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" ht="16.5" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -6645,7 +7466,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" ht="16.5" spans="1:8">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -6659,7 +7480,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" ht="16.5" spans="1:8">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -6673,7 +7494,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" ht="16.5" spans="1:8">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -6687,7 +7508,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" ht="16.5" spans="1:8">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -6701,7 +7522,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" ht="16.5" spans="1:8">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -6715,7 +7536,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" ht="16.5" spans="1:8">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -6729,7 +7550,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" ht="16.5" spans="1:8">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -6743,7 +7564,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" ht="16.5" spans="1:8">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -6757,7 +7578,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" ht="16.5" spans="1:8">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -6771,7 +7592,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" ht="16.5" spans="1:8">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -6785,7 +7606,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" ht="16.5" spans="1:8">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -6799,7 +7620,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" ht="16.5" spans="1:8">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -6813,7 +7634,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" ht="16.5" spans="1:8">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -6827,7 +7648,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" ht="16.5" spans="1:8">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -6841,7 +7662,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" ht="16.5" spans="1:8">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -6855,7 +7676,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" ht="16.5" spans="1:8">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -6869,7 +7690,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" ht="16.5" spans="1:8">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
@@ -6883,7 +7704,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" ht="16.5" spans="1:8">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
@@ -6899,7 +7720,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" ht="16.5" spans="1:8">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -6913,7 +7734,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" ht="24" spans="1:8">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -6927,7 +7748,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" ht="24" spans="1:8">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -6941,7 +7762,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" ht="24" spans="1:8">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -6955,7 +7776,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" ht="24" spans="1:8">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -6969,7 +7790,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" ht="16.5" spans="1:8">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -6983,7 +7804,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" ht="16.5" spans="1:8">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -6997,7 +7818,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" ht="24" spans="1:8">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -7011,7 +7832,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" ht="24" spans="1:8">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -7025,7 +7846,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" ht="16.5" spans="1:8">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -7043,49 +7864,43 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="9" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="27.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="17.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="18.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="26.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="21.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="38.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="71.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="29" style="0" width="9"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="17.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.45" customWidth="1"/>
+    <col min="5" max="5" width="13.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.0083333333333" customWidth="1"/>
+    <col min="7" max="7" width="38.1" customWidth="1"/>
+    <col min="8" max="8" width="131.108333333333" customWidth="1"/>
+    <col min="9" max="21" width="9" customWidth="1"/>
+    <col min="22" max="22" width="27.0083333333333" customWidth="1"/>
+    <col min="23" max="23" width="17.1083333333333" customWidth="1"/>
+    <col min="24" max="24" width="18.4416666666667" customWidth="1"/>
+    <col min="25" max="25" width="26.3333333333333" customWidth="1"/>
+    <col min="26" max="26" width="21.8916666666667" customWidth="1"/>
+    <col min="27" max="27" width="38.1" customWidth="1"/>
+    <col min="28" max="28" width="71.7666666666667" customWidth="1"/>
+    <col min="29" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="32.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="33.75" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7097,7 +7912,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="U1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
@@ -7107,7 +7922,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="27" customHeight="1" spans="1:28">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7157,55 +7972,55 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="16.5" spans="1:28">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>43637</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>43637</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="14">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="9"/>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="V3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="5" t="n">
+      <c r="W3" s="5">
         <v>43592</v>
       </c>
-      <c r="X3" s="5" t="n">
+      <c r="X3" s="5">
         <v>43592</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z3" s="7" t="n">
+        <v>61</v>
+      </c>
+      <c r="Z3" s="7">
         <v>1</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:28">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -7220,14 +8035,14 @@
         <v>19</v>
       </c>
       <c r="H4" s="9"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="21" t="s">
-        <v>62</v>
+      <c r="U4" s="17"/>
+      <c r="V4" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="7" t="n">
+      <c r="Z4" s="7">
         <v>0</v>
       </c>
       <c r="AA4" s="8" t="s">
@@ -7235,7 +8050,7 @@
       </c>
       <c r="AB4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="16.5" spans="1:28">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -7248,24 +8063,24 @@
         <v>19</v>
       </c>
       <c r="H5" s="9"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="21" t="s">
-        <v>63</v>
+      <c r="U5" s="17"/>
+      <c r="V5" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
-      <c r="Z5" s="7" t="n">
+      <c r="Z5" s="7">
         <v>0</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:28">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -7278,26 +8093,26 @@
         <v>19</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="U6" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="V6" s="21" t="s">
+      <c r="U6" s="15" t="s">
         <v>66</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
-      <c r="Z6" s="7" t="n">
+      <c r="Z6" s="7">
         <v>0</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="AB6" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" ht="24" spans="1:28">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -7310,20 +8125,20 @@
         <v>19</v>
       </c>
       <c r="H7" s="9"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="W7" s="5" t="n">
+      <c r="U7" s="18"/>
+      <c r="V7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="W7" s="5">
         <v>43592</v>
       </c>
-      <c r="X7" s="5" t="n">
+      <c r="X7" s="5">
         <v>43592</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z7" s="7" t="n">
+        <v>61</v>
+      </c>
+      <c r="Z7" s="7">
         <v>1</v>
       </c>
       <c r="AA7" s="8" t="s">
@@ -7331,7 +8146,7 @@
       </c>
       <c r="AB7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" ht="24" spans="1:28">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -7345,15 +8160,15 @@
       </c>
       <c r="H8" s="9"/>
       <c r="U8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="V8" s="21" t="s">
         <v>70</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-      <c r="Z8" s="7" t="n">
+      <c r="Z8" s="7">
         <v>0</v>
       </c>
       <c r="AA8" s="8" t="s">
@@ -7361,7 +8176,7 @@
       </c>
       <c r="AB8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" ht="16.5" spans="1:28">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -7375,13 +8190,13 @@
       </c>
       <c r="H9" s="9"/>
       <c r="U9" s="10"/>
-      <c r="V9" s="21" t="s">
-        <v>71</v>
+      <c r="V9" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-      <c r="Z9" s="7" t="n">
+      <c r="Z9" s="7">
         <v>0</v>
       </c>
       <c r="AA9" s="8" t="s">
@@ -7389,7 +8204,7 @@
       </c>
       <c r="AB9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="38.25" customHeight="1" spans="1:28">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -7402,14 +8217,14 @@
         <v>19</v>
       </c>
       <c r="H10" s="9"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="21" t="s">
-        <v>72</v>
+      <c r="U10" s="19"/>
+      <c r="V10" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="7" t="n">
+      <c r="Z10" s="7">
         <v>0</v>
       </c>
       <c r="AA10" s="8" t="s">
@@ -7417,7 +8232,7 @@
       </c>
       <c r="AB10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" ht="16.5" spans="1:28">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -7431,13 +8246,13 @@
       </c>
       <c r="H11" s="9"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="21" t="s">
-        <v>73</v>
+      <c r="V11" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-      <c r="Z11" s="7" t="n">
+      <c r="Z11" s="7">
         <v>0</v>
       </c>
       <c r="AA11" s="8" t="s">
@@ -7445,7 +8260,7 @@
       </c>
       <c r="AB11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" ht="16.5" spans="1:28">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -7458,14 +8273,14 @@
         <v>19</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="21" t="s">
-        <v>74</v>
+      <c r="U12" s="19"/>
+      <c r="V12" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-      <c r="Z12" s="7" t="n">
+      <c r="Z12" s="7">
         <v>0</v>
       </c>
       <c r="AA12" s="8" t="s">
@@ -7473,7 +8288,7 @@
       </c>
       <c r="AB12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" ht="16.5" spans="1:28">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -7486,26 +8301,26 @@
         <v>19</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="U13" s="24" t="s">
+      <c r="U13" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="V13" s="21" t="s">
-        <v>75</v>
+      <c r="V13" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
-      <c r="Z13" s="7" t="n">
+      <c r="Z13" s="7">
         <v>0</v>
       </c>
       <c r="AA13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AB13" s="25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB13" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:8">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -7519,7 +8334,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" ht="16.5" spans="1:8">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -7533,7 +8348,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" ht="16.5" spans="1:8">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -7547,7 +8362,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" ht="16.5" spans="1:8">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -7561,7 +8376,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" ht="16.5" spans="1:8">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -7575,7 +8390,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" ht="16.5" spans="1:8">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -7589,7 +8404,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" ht="16.5" spans="1:8">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -7603,7 +8418,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" ht="16.5" spans="1:8">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -7617,7 +8432,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" ht="16.5" spans="1:8">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -7631,7 +8446,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" ht="16.5" spans="1:8">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -7645,7 +8460,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" ht="16.5" spans="1:8">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -7659,7 +8474,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" ht="16.5" spans="1:8">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -7673,7 +8488,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" ht="16.5" spans="1:8">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -7687,7 +8502,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" ht="16.5" spans="1:8">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -7701,7 +8516,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" ht="16.5" spans="1:8">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -7715,7 +8530,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" ht="16.5" spans="1:8">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -7729,7 +8544,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" ht="16.5" spans="1:8">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -7743,7 +8558,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" ht="16.5" spans="1:8">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -7757,7 +8572,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" ht="16.5" spans="1:8">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
@@ -7771,7 +8586,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" ht="16.5" spans="1:8">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
@@ -7787,7 +8602,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" ht="16.5" spans="1:8">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -7801,7 +8616,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" ht="24" spans="1:8">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -7815,7 +8630,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" ht="24" spans="1:8">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -7829,7 +8644,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" ht="24" spans="1:8">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -7843,7 +8658,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" ht="24" spans="1:8">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -7857,7 +8672,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" ht="16.5" spans="1:8">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -7871,7 +8686,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" ht="16.5" spans="1:8">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -7885,7 +8700,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" ht="24" spans="1:8">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -7899,7 +8714,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" ht="24" spans="1:8">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -7913,7 +8728,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" ht="16.5" spans="1:8">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -7932,12 +8747,8 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="U1:AB1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/梁卫鸿/旅游网—开发一梁卫鸿 .xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿 .xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XJT17\Desktop\xutao\hgkj_01\梁卫鸿\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA44F873-FD78-40AF-A542-D921267A3FCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8400" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="81">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -261,6 +267,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！！编码一定要加注释，否则后期自己改都很麻烦，</t>
@@ -270,6 +277,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>周末两天要进行优化测试以及一些功能的补充</t>
@@ -282,11 +290,15 @@
     <t>上传图片没思路，本来26号实现，结果花了两天</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
     <numFmt numFmtId="177" formatCode="[$-804]h:mm"/>
@@ -311,41 +323,48 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0066CC"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -353,28 +372,33 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF33CCCC"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -522,13 +546,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -791,27 +818,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="30.375" customWidth="1"/>
-    <col min="8" max="8" width="99.875" customWidth="1"/>
+    <col min="7" max="7" width="30.36328125" customWidth="1"/>
+    <col min="8" max="8" width="99.90625" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -823,7 +850,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="28">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1614,27 +1641,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1756,7 +1783,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1770,7 +1797,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1784,7 +1811,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -1812,7 +1839,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -1868,7 +1895,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -1924,7 +1951,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -1980,7 +2007,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2158,7 +2185,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -2172,7 +2199,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -2186,7 +2213,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -2200,7 +2227,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -2214,7 +2241,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -2228,7 +2255,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>53</v>
@@ -2242,7 +2269,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -2256,7 +2283,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -2290,37 +2317,37 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G43" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2448,7 +2475,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -2470,7 +2497,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -2490,7 +2517,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -2534,7 +2561,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2606,7 +2633,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2678,7 +2705,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2750,7 +2777,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2950,7 +2977,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -2970,7 +2997,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -2984,7 +3011,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -2998,7 +3025,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -3012,7 +3039,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -3026,7 +3053,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>53</v>
@@ -3040,7 +3067,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -3054,7 +3081,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -3093,27 +3120,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3241,7 +3268,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -3263,7 +3290,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -3283,7 +3310,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -3327,7 +3354,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -3399,7 +3426,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -3471,7 +3498,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -3543,7 +3570,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3731,7 +3758,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -3751,7 +3778,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -3765,7 +3792,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -3779,7 +3806,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -3793,7 +3820,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -3807,7 +3834,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>53</v>
@@ -3821,7 +3848,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -3835,7 +3862,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -3874,27 +3901,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4024,7 +4051,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -4046,31 +4073,47 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="4">
+        <v>43643</v>
+      </c>
+      <c r="D8" s="4">
+        <v>43643</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="6"/>
+      <c r="C9" s="4">
+        <v>76515</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43643</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="H9" s="8"/>
     </row>
@@ -4088,7 +4131,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -4144,7 +4187,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -4200,7 +4243,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -4256,7 +4299,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4403,12 +4446,20 @@
       <c r="B33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="6"/>
+      <c r="C33" s="4">
+        <v>43641</v>
+      </c>
+      <c r="D33" s="4">
+        <v>43641</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
       <c r="G33" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="H33" s="8"/>
     </row>
@@ -4417,44 +4468,68 @@
       <c r="B34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="6"/>
+      <c r="C34" s="4">
+        <v>43641</v>
+      </c>
+      <c r="D34" s="4">
+        <v>43641</v>
+      </c>
+      <c r="E34" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1</v>
+      </c>
       <c r="G34" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="6"/>
+      <c r="C35" s="4">
+        <v>43641</v>
+      </c>
+      <c r="D35" s="4">
+        <v>43641</v>
+      </c>
+      <c r="E35" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0.7</v>
+      </c>
       <c r="G35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="6"/>
+      <c r="C36" s="4">
+        <v>43641</v>
+      </c>
+      <c r="D36" s="4">
+        <v>43641</v>
+      </c>
+      <c r="E36" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0.7</v>
+      </c>
       <c r="G36" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -4468,7 +4543,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -4482,35 +4557,51 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="6"/>
+      <c r="C39" s="4">
+        <v>43641</v>
+      </c>
+      <c r="D39" s="4">
+        <v>43641</v>
+      </c>
+      <c r="E39" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G39" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="6"/>
+      <c r="C40" s="4">
+        <v>43641</v>
+      </c>
+      <c r="D40" s="4">
+        <v>43641</v>
+      </c>
+      <c r="E40" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G40" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -4524,7 +4615,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -4563,27 +4654,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4721,7 +4812,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -5115,7 +5206,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -5129,7 +5220,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -5147,7 +5238,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -5161,7 +5252,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5203,7 +5294,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -5217,7 +5308,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5251,7 +5342,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G43" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5261,27 +5352,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -5387,7 +5478,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -5401,7 +5492,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -5415,7 +5506,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -5443,7 +5534,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -5499,7 +5590,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -5555,7 +5646,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -5611,7 +5702,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -5781,7 +5872,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -5795,7 +5886,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -5809,7 +5900,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -5823,7 +5914,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5837,7 +5928,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -5851,7 +5942,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>53</v>
@@ -5865,7 +5956,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -5879,7 +5970,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5918,27 +6009,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -6068,7 +6159,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -6082,7 +6173,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -6096,7 +6187,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -6124,7 +6215,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -6180,7 +6271,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -6236,7 +6327,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -6292,7 +6383,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -6462,7 +6553,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -6476,7 +6567,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -6490,7 +6581,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -6504,7 +6595,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -6518,7 +6609,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -6532,7 +6623,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>53</v>
@@ -6546,7 +6637,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -6560,7 +6651,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -6599,27 +6690,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -6741,7 +6832,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -6755,7 +6846,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -6769,7 +6860,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -6797,7 +6888,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -6853,7 +6944,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -6909,7 +7000,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -6965,7 +7056,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7135,7 +7226,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7149,7 +7240,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -7163,7 +7254,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -7177,7 +7268,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -7191,7 +7282,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -7205,7 +7296,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>53</v>
@@ -7219,7 +7310,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -7233,7 +7324,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -7272,35 +7363,35 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
     <col min="9" max="21" width="9" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
-    <col min="23" max="23" width="17.125" customWidth="1"/>
-    <col min="24" max="24" width="18.5" customWidth="1"/>
-    <col min="25" max="25" width="26.375" customWidth="1"/>
-    <col min="26" max="26" width="21.875" customWidth="1"/>
-    <col min="27" max="27" width="38.125" customWidth="1"/>
-    <col min="28" max="28" width="71.75" customWidth="1"/>
+    <col min="23" max="23" width="17.08984375" customWidth="1"/>
+    <col min="24" max="24" width="18.453125" customWidth="1"/>
+    <col min="25" max="25" width="26.36328125" customWidth="1"/>
+    <col min="26" max="26" width="21.90625" customWidth="1"/>
+    <col min="27" max="27" width="38.08984375" customWidth="1"/>
+    <col min="28" max="28" width="71.7265625" customWidth="1"/>
     <col min="29" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="33.75">
+    <row r="1" spans="1:28" ht="33">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -7450,7 +7541,7 @@
       </c>
       <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="1:28" ht="16.5">
+    <row r="5" spans="1:28" ht="26">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -7512,7 +7603,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="24">
+    <row r="7" spans="1:28" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -7546,7 +7637,7 @@
       </c>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" spans="1:28" ht="24">
+    <row r="8" spans="1:28" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -7576,7 +7667,7 @@
       </c>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" spans="1:28" ht="16.5">
+    <row r="9" spans="1:28" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -7632,7 +7723,7 @@
       </c>
       <c r="AB10" s="8"/>
     </row>
-    <row r="11" spans="1:28" ht="16.5">
+    <row r="11" spans="1:28" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -7734,7 +7825,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:28" ht="16.5">
+    <row r="15" spans="1:28" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -7790,7 +7881,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7846,7 +7937,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -8016,7 +8107,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -8030,7 +8121,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -8044,7 +8135,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -8058,7 +8149,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -8072,7 +8163,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -8086,7 +8177,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>53</v>
@@ -8100,7 +8191,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -8114,7 +8205,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>

--- a/梁卫鸿/旅游网—开发一梁卫鸿 .xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XJT17\Desktop\xutao\hgkj_01\梁卫鸿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA44F873-FD78-40AF-A542-D921267A3FCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62309177-7D2A-48A4-AB83-690112145012}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3904,8 +3904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4106,7 +4106,7 @@
       <c r="D9" s="4">
         <v>43643</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="13">
         <v>0.875</v>
       </c>
       <c r="F9" s="6">
@@ -4122,10 +4122,16 @@
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4">
+        <v>76515</v>
+      </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.6</v>
+      </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
       </c>
@@ -4136,12 +4142,20 @@
       <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="6"/>
+      <c r="C11" s="4">
+        <v>76515</v>
+      </c>
+      <c r="D11" s="4">
+        <v>76515</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="H11" s="8"/>
     </row>
@@ -4192,12 +4206,20 @@
       <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="4">
+        <v>76515</v>
+      </c>
+      <c r="D15" s="4">
+        <v>76515</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="H15" s="8"/>
     </row>

--- a/梁卫鸿/旅游网—开发一梁卫鸿 .xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XJT17\Desktop\xutao\hgkj_01\梁卫鸿\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNHJ\Desktop\hgkj_01\梁卫鸿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62309177-7D2A-48A4-AB83-690112145012}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67F2714-4E1D-4FE2-A6D0-22E9F1A625B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -305,7 +305,7 @@
     <numFmt numFmtId="178" formatCode="[$-804]yyyy\-m\-d"/>
     <numFmt numFmtId="179" formatCode="[$-804]h:mm:ss"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -825,20 +825,20 @@
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="30.36328125" customWidth="1"/>
-    <col min="8" max="8" width="99.90625" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="99.88671875" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -850,7 +850,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:8" ht="28">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -876,7 +876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -900,7 +900,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -924,7 +924,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -946,7 +946,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -968,7 +968,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -992,7 +992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="16.5">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -1476,7 +1476,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>53</v>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>55</v>
       </c>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A44" s="12"/>
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
@@ -1550,7 +1550,7 @@
       <c r="G44" s="24"/>
       <c r="H44" s="25"/>
     </row>
-    <row r="45" spans="1:8" ht="16.5">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
       <c r="B45" s="21"/>
       <c r="C45" s="22"/>
@@ -1560,7 +1560,7 @@
       <c r="G45" s="24"/>
       <c r="H45" s="25"/>
     </row>
-    <row r="46" spans="1:8" ht="16.5">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A46" s="12"/>
       <c r="B46" s="21"/>
       <c r="C46" s="22"/>
@@ -1570,7 +1570,7 @@
       <c r="G46" s="24"/>
       <c r="H46" s="25"/>
     </row>
-    <row r="47" spans="1:8" ht="16.5">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A47" s="12"/>
       <c r="B47" s="21"/>
       <c r="C47" s="22"/>
@@ -1580,7 +1580,7 @@
       <c r="G47" s="24"/>
       <c r="H47" s="25"/>
     </row>
-    <row r="48" spans="1:8" ht="16.5">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A48" s="12"/>
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
@@ -1590,7 +1590,7 @@
       <c r="G48" s="24"/>
       <c r="H48" s="25"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A49" s="12"/>
       <c r="B49" s="21"/>
       <c r="C49" s="22"/>
@@ -1600,7 +1600,7 @@
       <c r="G49" s="24"/>
       <c r="H49" s="25"/>
     </row>
-    <row r="50" spans="1:8" ht="16.5">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A50" s="12"/>
       <c r="B50" s="21"/>
       <c r="C50" s="22"/>
@@ -1610,7 +1610,7 @@
       <c r="G50" s="24"/>
       <c r="H50" s="25"/>
     </row>
-    <row r="51" spans="1:8" ht="16.5">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
       <c r="B51" s="21"/>
       <c r="C51" s="22"/>
@@ -1620,7 +1620,7 @@
       <c r="G51" s="24"/>
       <c r="H51" s="25"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A52" s="12"/>
       <c r="B52" s="21"/>
       <c r="C52" s="22"/>
@@ -1644,24 +1644,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1673,7 +1673,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -2171,35 +2171,49 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
+      <c r="C34" s="4">
+        <v>43642</v>
+      </c>
+      <c r="D34" s="4">
+        <v>43643</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1</v>
+      </c>
       <c r="G34" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="4">
+        <v>43643</v>
+      </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
+      <c r="E35" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -2213,7 +2227,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -2227,7 +2241,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -2241,21 +2255,27 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="4">
+        <v>43643</v>
+      </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="6"/>
+      <c r="E39" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G39" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>53</v>
@@ -2269,7 +2289,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -2283,7 +2303,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -2297,7 +2317,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>55</v>
       </c>
@@ -2334,20 +2354,20 @@
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2359,7 +2379,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2385,7 +2405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2409,7 +2429,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2433,7 +2453,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -2453,7 +2473,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -2475,7 +2495,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -2497,7 +2517,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -2517,7 +2537,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -2539,7 +2559,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -2561,7 +2581,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2583,7 +2603,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -2597,7 +2617,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -2611,7 +2631,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -2633,7 +2653,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2655,7 +2675,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -2669,7 +2689,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -2683,7 +2703,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -2705,7 +2725,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2727,7 +2747,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -2741,7 +2761,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -2755,7 +2775,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -2777,7 +2797,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2799,7 +2819,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -2813,7 +2833,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -2827,7 +2847,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -2841,7 +2861,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -2855,7 +2875,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -2869,7 +2889,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -2883,7 +2903,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -2903,7 +2923,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -2917,7 +2937,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -2939,7 +2959,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -2963,7 +2983,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -2977,7 +2997,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -2997,7 +3017,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -3011,7 +3031,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -3025,7 +3045,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -3039,7 +3059,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -3053,7 +3073,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>53</v>
@@ -3067,7 +3087,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -3081,7 +3101,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -3095,7 +3115,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>55</v>
       </c>
@@ -3127,20 +3147,20 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3152,7 +3172,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3178,7 +3198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3202,7 +3222,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3226,7 +3246,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -3246,7 +3266,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -3268,7 +3288,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -3290,7 +3310,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -3310,7 +3330,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -3332,7 +3352,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -3354,7 +3374,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -3376,7 +3396,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -3390,7 +3410,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -3404,7 +3424,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -3426,7 +3446,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -3448,7 +3468,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -3462,7 +3482,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -3476,7 +3496,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -3498,7 +3518,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -3520,7 +3540,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -3534,7 +3554,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -3548,7 +3568,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -3570,7 +3590,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3592,7 +3612,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -3606,7 +3626,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -3620,7 +3640,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -3634,7 +3654,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -3648,7 +3668,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -3662,7 +3682,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -3676,7 +3696,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -3690,7 +3710,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -3704,7 +3724,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -3720,7 +3740,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -3744,7 +3764,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -3758,7 +3778,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -3778,7 +3798,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -3792,7 +3812,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -3806,7 +3826,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -3820,7 +3840,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -3834,7 +3854,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>53</v>
@@ -3848,7 +3868,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -3862,7 +3882,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -3876,7 +3896,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>55</v>
       </c>
@@ -3904,24 +3924,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3933,7 +3953,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3959,7 +3979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3983,7 +4003,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -4007,7 +4027,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -4029,7 +4049,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -4051,7 +4071,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -4073,7 +4093,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -4095,7 +4115,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -4117,7 +4137,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -4137,7 +4157,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -4159,7 +4179,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -4173,7 +4193,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -4187,7 +4207,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -4201,7 +4221,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -4223,7 +4243,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -4237,7 +4257,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -4251,7 +4271,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -4265,7 +4285,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -4279,7 +4299,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -4293,7 +4313,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -4307,7 +4327,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -4321,7 +4341,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4335,7 +4355,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -4349,7 +4369,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -4363,7 +4383,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -4377,7 +4397,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -4391,7 +4411,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -4405,7 +4425,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -4419,7 +4439,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -4433,7 +4453,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -4447,7 +4467,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -4461,7 +4481,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -4485,7 +4505,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -4507,7 +4527,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4529,7 +4549,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4551,7 +4571,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -4565,7 +4585,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -4579,7 +4599,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -4601,7 +4621,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>53</v>
@@ -4623,7 +4643,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -4637,7 +4657,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -4651,7 +4671,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>55</v>
       </c>
@@ -4679,24 +4699,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4708,7 +4728,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4734,7 +4754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -4760,7 +4780,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -4776,7 +4796,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -4798,7 +4818,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -4820,7 +4840,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -4834,7 +4854,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -4848,7 +4868,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -4862,7 +4882,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -4876,7 +4896,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -4890,7 +4910,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -4904,7 +4924,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -4918,7 +4938,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -4932,7 +4952,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -4946,7 +4966,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -4960,7 +4980,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -4974,7 +4994,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -4988,7 +5008,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -5002,7 +5022,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -5016,7 +5036,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -5030,7 +5050,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -5044,7 +5064,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -5058,7 +5078,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -5072,7 +5092,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -5086,7 +5106,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -5100,7 +5120,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -5114,7 +5134,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -5128,7 +5148,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -5142,7 +5162,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -5156,7 +5176,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -5170,7 +5190,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -5184,7 +5204,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -5210,7 +5230,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -5218,31 +5238,39 @@
       <c r="C34" s="4">
         <v>43642</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
+      <c r="D34" s="4">
+        <v>43643</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.875</v>
+      </c>
       <c r="F34" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="4">
+        <v>43643</v>
+      </c>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
+      <c r="F35" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -5251,7 +5279,9 @@
         <v>43642</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="5">
+        <v>0.875</v>
+      </c>
       <c r="F36" s="6">
         <v>0.5</v>
       </c>
@@ -5260,7 +5290,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -5274,7 +5304,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5288,21 +5318,25 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="4">
+        <v>43643</v>
+      </c>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="6"/>
+      <c r="F39" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G39" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>53</v>
@@ -5316,7 +5350,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -5330,7 +5364,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5344,7 +5378,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>55</v>
       </c>
@@ -5381,20 +5415,20 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -5406,7 +5440,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5432,7 +5466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -5456,7 +5490,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -5472,7 +5506,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -5486,7 +5520,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -5500,7 +5534,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -5514,7 +5548,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -5528,7 +5562,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -5542,7 +5576,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -5556,7 +5590,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -5570,7 +5604,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -5584,7 +5618,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -5598,7 +5632,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -5612,7 +5646,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -5626,7 +5660,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -5640,7 +5674,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -5654,7 +5688,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -5668,7 +5702,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -5682,7 +5716,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -5696,7 +5730,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -5710,7 +5744,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -5724,7 +5758,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -5738,7 +5772,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -5752,7 +5786,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -5766,7 +5800,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -5780,7 +5814,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -5794,7 +5828,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -5808,7 +5842,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -5822,7 +5856,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -5836,7 +5870,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -5850,7 +5884,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -5864,7 +5898,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -5880,7 +5914,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -5894,7 +5928,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -5908,7 +5942,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -5922,7 +5956,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -5936,7 +5970,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5950,7 +5984,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -5964,7 +5998,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>53</v>
@@ -5978,7 +6012,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -5992,7 +6026,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -6006,7 +6040,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>55</v>
       </c>
@@ -6038,20 +6072,20 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -6063,7 +6097,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6089,7 +6123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -6113,7 +6147,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -6137,7 +6171,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -6159,7 +6193,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -6181,7 +6215,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -6195,7 +6229,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -6209,7 +6243,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -6223,7 +6257,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -6237,7 +6271,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -6251,7 +6285,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -6265,7 +6299,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -6279,7 +6313,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -6293,7 +6327,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -6307,7 +6341,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -6321,7 +6355,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -6335,7 +6369,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -6349,7 +6383,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -6363,7 +6397,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -6377,7 +6411,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -6391,7 +6425,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -6405,7 +6439,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -6419,7 +6453,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -6433,7 +6467,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -6447,7 +6481,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -6461,7 +6495,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -6475,7 +6509,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -6489,7 +6523,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -6503,7 +6537,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -6517,7 +6551,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -6531,7 +6565,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -6545,7 +6579,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -6561,7 +6595,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -6575,7 +6609,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -6589,7 +6623,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -6603,7 +6637,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -6617,7 +6651,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -6631,7 +6665,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -6645,7 +6679,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>53</v>
@@ -6659,7 +6693,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -6673,7 +6707,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -6687,7 +6721,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>55</v>
       </c>
@@ -6719,20 +6753,20 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -6744,7 +6778,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6770,7 +6804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -6794,7 +6828,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -6818,7 +6852,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -6840,7 +6874,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -6854,7 +6888,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="26">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -6868,7 +6902,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="26">
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -6882,7 +6916,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="26">
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -6896,7 +6930,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -6910,7 +6944,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="26">
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -6924,7 +6958,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -6938,7 +6972,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -6952,7 +6986,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -6966,7 +7000,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="26">
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -6980,7 +7014,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -6994,7 +7028,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -7008,7 +7042,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -7022,7 +7056,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7036,7 +7070,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -7050,7 +7084,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -7064,7 +7098,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -7078,7 +7112,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7092,7 +7126,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -7106,7 +7140,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -7120,7 +7154,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -7134,7 +7168,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -7148,7 +7182,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -7162,7 +7196,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -7176,7 +7210,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -7190,7 +7224,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -7204,7 +7238,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -7218,7 +7252,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -7234,7 +7268,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -7248,7 +7282,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7262,7 +7296,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -7276,7 +7310,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -7290,7 +7324,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -7304,7 +7338,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -7318,7 +7352,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>53</v>
@@ -7332,7 +7366,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -7346,7 +7380,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -7360,7 +7394,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>55</v>
       </c>
@@ -7392,28 +7426,28 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.08984375" customWidth="1"/>
-    <col min="8" max="8" width="131.08984375" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
     <col min="9" max="21" width="9" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
-    <col min="23" max="23" width="17.08984375" customWidth="1"/>
-    <col min="24" max="24" width="18.453125" customWidth="1"/>
-    <col min="25" max="25" width="26.36328125" customWidth="1"/>
-    <col min="26" max="26" width="21.90625" customWidth="1"/>
-    <col min="27" max="27" width="38.08984375" customWidth="1"/>
-    <col min="28" max="28" width="71.7265625" customWidth="1"/>
+    <col min="23" max="23" width="17.109375" customWidth="1"/>
+    <col min="24" max="24" width="18.44140625" customWidth="1"/>
+    <col min="25" max="25" width="26.33203125" customWidth="1"/>
+    <col min="26" max="26" width="21.88671875" customWidth="1"/>
+    <col min="27" max="27" width="38.109375" customWidth="1"/>
+    <col min="28" max="28" width="71.77734375" customWidth="1"/>
     <col min="29" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="33">
+    <row r="1" spans="1:28" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -7435,7 +7469,7 @@
       <c r="AA1" s="26"/>
       <c r="AB1" s="26"/>
     </row>
-    <row r="2" spans="1:28" ht="27" customHeight="1">
+    <row r="2" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7485,7 +7519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="16.5">
+    <row r="3" spans="1:28" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -7533,7 +7567,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="16.5">
+    <row r="4" spans="1:28" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -7563,7 +7597,7 @@
       </c>
       <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="1:28" ht="26">
+    <row r="5" spans="1:28" ht="24" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -7593,7 +7627,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="16.5">
+    <row r="6" spans="1:28" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -7625,7 +7659,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="26">
+    <row r="7" spans="1:28" ht="24" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -7659,7 +7693,7 @@
       </c>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" spans="1:28" ht="26">
+    <row r="8" spans="1:28" ht="24" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -7689,7 +7723,7 @@
       </c>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" spans="1:28" ht="26">
+    <row r="9" spans="1:28" ht="24" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -7717,7 +7751,7 @@
       </c>
       <c r="AB9" s="8"/>
     </row>
-    <row r="10" spans="1:28" ht="38.25" customHeight="1">
+    <row r="10" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -7745,7 +7779,7 @@
       </c>
       <c r="AB10" s="8"/>
     </row>
-    <row r="11" spans="1:28" ht="26">
+    <row r="11" spans="1:28" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -7773,7 +7807,7 @@
       </c>
       <c r="AB11" s="8"/>
     </row>
-    <row r="12" spans="1:28" ht="16.5">
+    <row r="12" spans="1:28" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -7801,7 +7835,7 @@
       </c>
       <c r="AB12" s="8"/>
     </row>
-    <row r="13" spans="1:28" ht="16.5">
+    <row r="13" spans="1:28" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -7833,7 +7867,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="16.5">
+    <row r="14" spans="1:28" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -7847,7 +7881,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:28" ht="26">
+    <row r="15" spans="1:28" ht="24" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -7861,7 +7895,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="16.5">
+    <row r="16" spans="1:28" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -7875,7 +7909,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -7889,7 +7923,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -7903,7 +7937,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="26">
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7917,7 +7951,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -7931,7 +7965,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -7945,7 +7979,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -7959,7 +7993,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7973,7 +8007,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -7987,7 +8021,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -8001,7 +8035,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -8015,7 +8049,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -8029,7 +8063,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -8043,7 +8077,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -8057,7 +8091,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -8071,7 +8105,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -8085,7 +8119,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -8099,7 +8133,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -8115,7 +8149,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -8129,7 +8163,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="26">
+    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -8143,7 +8177,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="26">
+    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -8157,7 +8191,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="26">
+    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -8171,7 +8205,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="26">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -8185,7 +8219,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="26">
+    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -8199,7 +8233,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="26">
+    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>53</v>
@@ -8213,7 +8247,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="26">
+    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -8227,7 +8261,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="26">
+    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -8241,7 +8275,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>55</v>
       </c>

--- a/梁卫鸿/旅游网—开发一梁卫鸿 .xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNHJ\Desktop\hgkj_01\梁卫鸿\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ojjplus\Documents\tencent files\1441108287\filerecv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67F2714-4E1D-4FE2-A6D0-22E9F1A625B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12E256F-D423-4780-9ECD-EF5CC55B8B98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="80">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -190,6 +190,9 @@
     <t>管理员-添加旅游路线</t>
   </si>
   <si>
+    <t>上传图片没思路，本来26号实现，结果花了两天</t>
+  </si>
+  <si>
     <t>管理员-查询旅游路线</t>
   </si>
   <si>
@@ -286,26 +289,18 @@
   <si>
     <t xml:space="preserve"> 21:00</t>
   </si>
-  <si>
-    <t>上传图片没思路，本来26号实现，结果花了两天</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="h:mm;@"/>
-    <numFmt numFmtId="177" formatCode="[$-804]h:mm"/>
-    <numFmt numFmtId="178" formatCode="[$-804]yyyy\-m\-d"/>
+    <numFmt numFmtId="178" formatCode="[$-804]h:mm"/>
     <numFmt numFmtId="179" formatCode="[$-804]h:mm:ss"/>
+    <numFmt numFmtId="180" formatCode="h:mm;@"/>
+    <numFmt numFmtId="181" formatCode="[$-804]yyyy\-m\-d"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -474,10 +469,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -501,7 +496,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -528,7 +523,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -546,7 +541,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -825,7 +820,7 @@
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" customWidth="1"/>
@@ -838,7 +833,7 @@
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -850,7 +845,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -876,7 +871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -900,7 +895,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -924,7 +919,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -946,7 +941,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -968,7 +963,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15.6">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -992,7 +987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15.6">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1012,7 +1007,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.6">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -1026,7 +1021,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15.6">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -1042,7 +1037,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15.6">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -1056,7 +1051,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -1070,7 +1065,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -1084,7 +1079,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -1098,7 +1093,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15.6">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -1112,7 +1107,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -1126,7 +1121,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -1140,7 +1135,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -1154,7 +1149,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15.6">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -1168,7 +1163,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -1182,7 +1177,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -1196,7 +1191,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -1210,7 +1205,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -1224,7 +1219,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -1238,7 +1233,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -1252,7 +1247,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -1266,7 +1261,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -1280,7 +1275,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -1294,7 +1289,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -1308,7 +1303,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -1322,7 +1317,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -1336,7 +1331,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -1350,7 +1345,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -1374,7 +1369,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -1396,7 +1391,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -1410,7 +1405,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -1424,7 +1419,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -1438,7 +1433,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -1452,7 +1447,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -1473,13 +1468,13 @@
         <v>19</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" s="4">
         <v>43643</v>
@@ -1498,10 +1493,10 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1512,7 +1507,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -1526,9 +1521,9 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1540,7 +1535,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="12"/>
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
@@ -1550,7 +1545,7 @@
       <c r="G44" s="24"/>
       <c r="H44" s="25"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="12"/>
       <c r="B45" s="21"/>
       <c r="C45" s="22"/>
@@ -1560,7 +1555,7 @@
       <c r="G45" s="24"/>
       <c r="H45" s="25"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="12"/>
       <c r="B46" s="21"/>
       <c r="C46" s="22"/>
@@ -1570,7 +1565,7 @@
       <c r="G46" s="24"/>
       <c r="H46" s="25"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="12"/>
       <c r="B47" s="21"/>
       <c r="C47" s="22"/>
@@ -1580,7 +1575,7 @@
       <c r="G47" s="24"/>
       <c r="H47" s="25"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="12"/>
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
@@ -1590,7 +1585,7 @@
       <c r="G48" s="24"/>
       <c r="H48" s="25"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="12"/>
       <c r="B49" s="21"/>
       <c r="C49" s="22"/>
@@ -1600,7 +1595,7 @@
       <c r="G49" s="24"/>
       <c r="H49" s="25"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="12"/>
       <c r="B50" s="21"/>
       <c r="C50" s="22"/>
@@ -1610,7 +1605,7 @@
       <c r="G50" s="24"/>
       <c r="H50" s="25"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="12"/>
       <c r="B51" s="21"/>
       <c r="C51" s="22"/>
@@ -1620,7 +1615,7 @@
       <c r="G51" s="24"/>
       <c r="H51" s="25"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="12"/>
       <c r="B52" s="21"/>
       <c r="C52" s="22"/>
@@ -1644,11 +1639,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
@@ -1661,7 +1656,7 @@
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1673,7 +1668,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1699,7 +1694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1723,7 +1718,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1739,7 +1734,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -1751,7 +1746,7 @@
         <v>43641</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -1761,7 +1756,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -1783,7 +1778,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1797,7 +1792,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1811,7 +1806,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -1825,7 +1820,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -1839,7 +1834,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -1853,7 +1848,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -1867,7 +1862,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -1881,7 +1876,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -1895,7 +1890,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -1909,7 +1904,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -1923,7 +1918,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -1937,7 +1932,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -1951,7 +1946,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -1965,7 +1960,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -1979,7 +1974,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -1993,7 +1988,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -2007,7 +2002,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2021,7 +2016,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -2035,7 +2030,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -2049,7 +2044,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -2063,7 +2058,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -2077,7 +2072,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -2091,7 +2086,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -2105,7 +2100,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -2119,7 +2114,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -2133,7 +2128,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -2147,7 +2142,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -2171,7 +2166,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -2193,7 +2188,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -2213,7 +2208,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -2227,7 +2222,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -2241,7 +2236,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -2255,7 +2250,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -2275,10 +2270,10 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2289,10 +2284,10 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -2303,7 +2298,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -2317,9 +2312,9 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2354,7 +2349,7 @@
       <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
@@ -2367,7 +2362,7 @@
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2379,7 +2374,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2405,7 +2400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2429,7 +2424,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2453,7 +2448,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -2473,7 +2468,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -2495,7 +2490,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -2517,7 +2512,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -2537,7 +2532,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -2559,7 +2554,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -2581,7 +2576,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2603,7 +2598,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -2617,7 +2612,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -2631,7 +2626,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -2653,7 +2648,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2675,7 +2670,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -2689,7 +2684,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -2703,7 +2698,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -2725,7 +2720,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2747,7 +2742,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -2761,7 +2756,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -2775,7 +2770,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -2797,7 +2792,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2819,7 +2814,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -2833,7 +2828,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -2847,7 +2842,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -2861,7 +2856,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -2875,7 +2870,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -2889,7 +2884,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -2903,7 +2898,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -2923,7 +2918,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -2937,7 +2932,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -2959,7 +2954,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -2983,7 +2978,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -2997,7 +2992,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -3017,7 +3012,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -3031,7 +3026,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -3045,7 +3040,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -3059,7 +3054,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -3073,10 +3068,10 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3087,10 +3082,10 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3101,7 +3096,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -3115,9 +3110,9 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -3147,7 +3142,7 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
@@ -3160,7 +3155,7 @@
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3172,7 +3167,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3198,7 +3193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3222,7 +3217,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3246,7 +3241,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -3266,7 +3261,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -3288,7 +3283,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -3310,7 +3305,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -3330,7 +3325,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -3352,7 +3347,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -3374,7 +3369,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -3396,7 +3391,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -3410,7 +3405,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -3424,7 +3419,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -3446,7 +3441,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -3468,7 +3463,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -3482,7 +3477,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -3496,7 +3491,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -3518,7 +3513,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -3540,7 +3535,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -3554,7 +3549,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -3568,7 +3563,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -3590,7 +3585,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3612,7 +3607,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -3626,7 +3621,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -3640,7 +3635,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -3654,7 +3649,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -3668,7 +3663,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -3682,7 +3677,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -3696,7 +3691,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -3710,7 +3705,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -3724,7 +3719,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -3740,7 +3735,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -3764,7 +3759,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -3778,7 +3773,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -3798,7 +3793,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -3812,7 +3807,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -3826,7 +3821,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -3840,7 +3835,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -3854,10 +3849,10 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3868,10 +3863,10 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3882,7 +3877,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -3896,9 +3891,9 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -3928,7 +3923,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
@@ -3941,7 +3936,7 @@
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3953,7 +3948,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3979,7 +3974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -4003,7 +3998,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -4011,7 +4006,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="4">
         <v>43640</v>
@@ -4027,7 +4022,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -4049,7 +4044,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -4071,7 +4066,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -4093,7 +4088,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -4115,7 +4110,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -4133,11 +4128,11 @@
         <v>1</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -4157,7 +4152,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -4175,11 +4170,11 @@
         <v>1</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -4193,7 +4188,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -4207,7 +4202,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -4221,7 +4216,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -4239,11 +4234,11 @@
         <v>1</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -4257,7 +4252,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -4271,7 +4266,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -4285,7 +4280,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -4299,7 +4294,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -4313,7 +4308,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -4327,7 +4322,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -4341,7 +4336,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4355,7 +4350,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -4369,7 +4364,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -4383,7 +4378,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -4397,7 +4392,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -4411,7 +4406,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -4425,7 +4420,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -4439,7 +4434,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -4453,7 +4448,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -4467,7 +4462,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -4481,7 +4476,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -4501,11 +4496,11 @@
         <v>1</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -4523,11 +4518,11 @@
         <v>1</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4549,7 +4544,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -4571,7 +4566,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -4585,7 +4580,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -4599,7 +4594,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -4621,10 +4616,10 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" s="4">
         <v>43641</v>
@@ -4643,10 +4638,10 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -4657,7 +4652,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -4671,9 +4666,9 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -4703,7 +4698,7 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="21.109375" customWidth="1"/>
@@ -4716,7 +4711,7 @@
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4728,7 +4723,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4754,7 +4749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -4777,10 +4772,10 @@
         <v>11</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -4796,7 +4791,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -4814,11 +4809,11 @@
         <v>1</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -4840,7 +4835,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15.6">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -4854,7 +4849,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -4868,7 +4863,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.6">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -4882,7 +4877,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -4896,7 +4891,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15.6">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -4910,7 +4905,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -4924,7 +4919,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -4938,7 +4933,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -4952,7 +4947,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15.6">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -4966,7 +4961,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -4980,7 +4975,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -4994,7 +4989,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -5008,7 +5003,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15.6">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -5022,7 +5017,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -5036,7 +5031,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -5050,7 +5045,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -5064,7 +5059,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -5078,7 +5073,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -5092,7 +5087,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -5106,7 +5101,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -5120,7 +5115,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -5134,7 +5129,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -5148,7 +5143,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -5162,7 +5157,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -5176,7 +5171,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -5190,7 +5185,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -5204,7 +5199,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -5227,10 +5222,10 @@
         <v>11</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -5252,7 +5247,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -5270,7 +5265,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -5290,7 +5285,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -5304,7 +5299,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5318,7 +5313,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -5336,10 +5331,10 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -5350,10 +5345,10 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -5364,7 +5359,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5378,9 +5373,9 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -5415,7 +5410,7 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
@@ -5428,7 +5423,7 @@
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -5440,7 +5435,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5466,7 +5461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -5490,7 +5485,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -5506,7 +5501,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -5520,7 +5515,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -5534,7 +5529,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -5548,7 +5543,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -5562,7 +5557,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -5576,7 +5571,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -5590,7 +5585,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -5604,7 +5599,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -5618,7 +5613,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -5632,7 +5627,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -5646,7 +5641,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -5660,7 +5655,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -5674,7 +5669,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -5688,7 +5683,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -5702,7 +5697,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -5716,7 +5711,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -5730,7 +5725,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -5744,7 +5739,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -5758,7 +5753,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -5772,7 +5767,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -5786,7 +5781,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -5800,7 +5795,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -5814,7 +5809,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -5828,7 +5823,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -5842,7 +5837,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -5856,7 +5851,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -5870,7 +5865,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -5884,7 +5879,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -5898,7 +5893,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -5914,7 +5909,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -5928,7 +5923,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -5942,7 +5937,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -5956,7 +5951,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -5970,7 +5965,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5984,7 +5979,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -5998,10 +5993,10 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -6012,10 +6007,10 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -6026,7 +6021,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -6040,9 +6035,9 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -6068,11 +6063,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
@@ -6085,7 +6080,7 @@
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -6097,7 +6092,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6123,7 +6118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -6147,7 +6142,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -6171,7 +6166,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -6193,7 +6188,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -6215,21 +6210,29 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
+      <c r="C7" s="4">
+        <v>43642</v>
+      </c>
+      <c r="D7" s="4">
+        <v>43642</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -6243,7 +6246,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -6257,7 +6260,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -6271,7 +6274,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -6285,7 +6288,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -6299,7 +6302,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -6313,7 +6316,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -6327,7 +6330,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -6341,7 +6344,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -6355,7 +6358,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -6369,7 +6372,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -6383,7 +6386,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -6397,7 +6400,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -6411,7 +6414,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -6425,7 +6428,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -6439,7 +6442,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -6453,7 +6456,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -6467,7 +6470,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -6481,7 +6484,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -6495,7 +6498,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -6509,7 +6512,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -6523,7 +6526,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -6537,7 +6540,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -6551,7 +6554,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -6565,7 +6568,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -6579,23 +6582,31 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="6"/>
+      <c r="C33" s="4">
+        <v>43643</v>
+      </c>
+      <c r="D33" s="4">
+        <v>43643</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
       <c r="G33" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -6609,21 +6620,29 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="6"/>
+      <c r="C35" s="4">
+        <v>43643</v>
+      </c>
+      <c r="D35" s="4">
+        <v>43643</v>
+      </c>
+      <c r="E35" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -6637,7 +6656,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -6651,7 +6670,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -6665,7 +6684,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -6679,10 +6698,10 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -6693,10 +6712,10 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -6707,7 +6726,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -6721,9 +6740,9 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -6749,11 +6768,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
@@ -6766,7 +6785,7 @@
     <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -6778,7 +6797,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6804,7 +6823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -6828,7 +6847,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -6848,11 +6867,11 @@
         <v>0.5</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -6874,7 +6893,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -6884,11 +6903,11 @@
       <c r="E6" s="4"/>
       <c r="F6" s="6"/>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -6902,7 +6921,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -6916,7 +6935,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -6930,7 +6949,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -6944,7 +6963,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -6958,7 +6977,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -6972,7 +6991,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -6986,7 +7005,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -7000,7 +7019,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -7014,7 +7033,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -7028,7 +7047,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -7042,7 +7061,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -7056,7 +7075,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7070,7 +7089,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -7084,7 +7103,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -7098,7 +7117,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -7112,7 +7131,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7126,7 +7145,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -7140,7 +7159,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -7154,7 +7173,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -7168,7 +7187,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -7182,7 +7201,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -7196,7 +7215,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -7210,7 +7229,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -7224,7 +7243,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -7238,7 +7257,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -7252,7 +7271,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -7268,7 +7287,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -7282,7 +7301,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -7296,7 +7315,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -7310,7 +7329,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -7324,7 +7343,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -7338,7 +7357,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -7352,10 +7371,10 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -7366,10 +7385,10 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -7380,7 +7399,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -7394,9 +7413,9 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -7426,7 +7445,7 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
@@ -7447,7 +7466,7 @@
     <col min="29" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="32.4">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -7459,7 +7478,7 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
       <c r="U1" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V1" s="26"/>
       <c r="W1" s="26"/>
@@ -7469,7 +7488,7 @@
       <c r="AA1" s="26"/>
       <c r="AB1" s="26"/>
     </row>
-    <row r="2" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7519,7 +7538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -7555,7 +7574,7 @@
         <v>43592</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z3" s="6">
         <v>1</v>
@@ -7564,10 +7583,10 @@
         <v>19</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="15.6" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -7584,7 +7603,7 @@
       <c r="H4" s="8"/>
       <c r="U4" s="16"/>
       <c r="V4" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
@@ -7597,7 +7616,7 @@
       </c>
       <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="1:28" ht="24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" ht="24">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -7612,7 +7631,7 @@
       <c r="H5" s="8"/>
       <c r="U5" s="16"/>
       <c r="V5" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
@@ -7624,10 +7643,10 @@
         <v>19</v>
       </c>
       <c r="AB5" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="15.6" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -7641,10 +7660,10 @@
       </c>
       <c r="H6" s="8"/>
       <c r="U6" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
@@ -7656,10 +7675,10 @@
         <v>19</v>
       </c>
       <c r="AB6" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="24" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="24">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -7674,7 +7693,7 @@
       <c r="H7" s="8"/>
       <c r="U7" s="17"/>
       <c r="V7" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W7" s="4">
         <v>43592</v>
@@ -7683,7 +7702,7 @@
         <v>43592</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z7" s="6">
         <v>1</v>
@@ -7693,7 +7712,7 @@
       </c>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" spans="1:28" ht="24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -7707,10 +7726,10 @@
       </c>
       <c r="H8" s="8"/>
       <c r="U8" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
@@ -7723,7 +7742,7 @@
       </c>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" spans="1:28" ht="24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" ht="24">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -7738,7 +7757,7 @@
       <c r="H9" s="8"/>
       <c r="U9" s="9"/>
       <c r="V9" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
@@ -7751,7 +7770,7 @@
       </c>
       <c r="AB9" s="8"/>
     </row>
-    <row r="10" spans="1:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="38.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -7766,7 +7785,7 @@
       <c r="H10" s="8"/>
       <c r="U10" s="18"/>
       <c r="V10" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
@@ -7779,7 +7798,7 @@
       </c>
       <c r="AB10" s="8"/>
     </row>
-    <row r="11" spans="1:28" ht="24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="24">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -7794,7 +7813,7 @@
       <c r="H11" s="8"/>
       <c r="U11" s="2"/>
       <c r="V11" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
@@ -7807,7 +7826,7 @@
       </c>
       <c r="AB11" s="8"/>
     </row>
-    <row r="12" spans="1:28" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -7822,7 +7841,7 @@
       <c r="H12" s="8"/>
       <c r="U12" s="18"/>
       <c r="V12" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
@@ -7835,7 +7854,7 @@
       </c>
       <c r="AB12" s="8"/>
     </row>
-    <row r="13" spans="1:28" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -7849,10 +7868,10 @@
       </c>
       <c r="H13" s="8"/>
       <c r="U13" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
@@ -7864,10 +7883,10 @@
         <v>19</v>
       </c>
       <c r="AB13" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.6" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -7881,7 +7900,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:28" ht="24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="24">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -7895,7 +7914,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -7909,7 +7928,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -7923,7 +7942,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -7937,7 +7956,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7951,7 +7970,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -7965,7 +7984,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -7979,7 +7998,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -7993,7 +8012,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -8007,7 +8026,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -8021,7 +8040,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -8035,7 +8054,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -8049,7 +8068,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -8063,7 +8082,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -8077,7 +8096,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -8091,7 +8110,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -8105,7 +8124,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -8119,7 +8138,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -8133,7 +8152,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -8149,7 +8168,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -8163,7 +8182,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -8177,7 +8196,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -8191,7 +8210,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -8205,7 +8224,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -8219,7 +8238,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -8233,10 +8252,10 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -8247,10 +8266,10 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -8261,7 +8280,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -8275,9 +8294,9 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>

--- a/梁卫鸿/旅游网—开发一梁卫鸿 .xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿 .xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ojjplus\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29C17B5-8347-4570-943D-462AD74250BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21030" windowHeight="8610" tabRatio="500" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -300,7 +306,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="[$-804]h:mm"/>
     <numFmt numFmtId="177" formatCode="h:mm;@"/>
@@ -331,18 +337,21 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -355,18 +364,21 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="30"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -374,12 +386,14 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="49"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -392,11 +406,13 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -619,10 +635,18 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -883,26 +907,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="30.375" customWidth="1"/>
-    <col min="8" max="8" width="99.875" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="99.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -914,7 +938,7 @@
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="28.8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -940,7 +964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -964,7 +988,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -988,7 +1012,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -1010,7 +1034,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -1032,7 +1056,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
+    <row r="7" spans="1:8" ht="15.6">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1056,7 +1080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8" ht="15.6">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1076,7 +1100,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="15.6">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -1090,7 +1114,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5">
+    <row r="10" spans="1:8" ht="15.6">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -1106,7 +1130,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="15.6">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -1120,7 +1144,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -1134,7 +1158,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -1148,7 +1172,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -1162,7 +1186,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="15.6">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -1176,7 +1200,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -1190,7 +1214,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -1204,7 +1228,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -1218,7 +1242,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="15.6">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -1232,7 +1256,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -1246,7 +1270,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -1260,7 +1284,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -1274,7 +1298,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -1288,7 +1312,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -1302,7 +1326,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -1316,7 +1340,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -1330,7 +1354,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -1344,7 +1368,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -1358,7 +1382,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -1372,7 +1396,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -1386,7 +1410,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -1400,7 +1424,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -1414,7 +1438,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -1438,7 +1462,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -1460,7 +1484,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -1474,7 +1498,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -1488,7 +1512,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="16.5">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -1502,7 +1526,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -1516,7 +1540,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -1540,7 +1564,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -1562,7 +1586,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -1576,7 +1600,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -1590,7 +1614,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="12" t="s">
         <v>56</v>
       </c>
@@ -1604,7 +1628,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="12"/>
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
@@ -1614,7 +1638,7 @@
       <c r="G44" s="24"/>
       <c r="H44" s="25"/>
     </row>
-    <row r="45" spans="1:8" ht="16.5">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="12"/>
       <c r="B45" s="21"/>
       <c r="C45" s="22"/>
@@ -1624,7 +1648,7 @@
       <c r="G45" s="24"/>
       <c r="H45" s="25"/>
     </row>
-    <row r="46" spans="1:8" ht="16.5">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="12"/>
       <c r="B46" s="21"/>
       <c r="C46" s="22"/>
@@ -1634,7 +1658,7 @@
       <c r="G46" s="24"/>
       <c r="H46" s="25"/>
     </row>
-    <row r="47" spans="1:8" ht="16.5">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="12"/>
       <c r="B47" s="21"/>
       <c r="C47" s="22"/>
@@ -1644,7 +1668,7 @@
       <c r="G47" s="24"/>
       <c r="H47" s="25"/>
     </row>
-    <row r="48" spans="1:8" ht="16.5">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="12"/>
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
@@ -1654,7 +1678,7 @@
       <c r="G48" s="24"/>
       <c r="H48" s="25"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="12"/>
       <c r="B49" s="21"/>
       <c r="C49" s="22"/>
@@ -1664,7 +1688,7 @@
       <c r="G49" s="24"/>
       <c r="H49" s="25"/>
     </row>
-    <row r="50" spans="1:8" ht="16.5">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="12"/>
       <c r="B50" s="21"/>
       <c r="C50" s="22"/>
@@ -1674,7 +1698,7 @@
       <c r="G50" s="24"/>
       <c r="H50" s="25"/>
     </row>
-    <row r="51" spans="1:8" ht="16.5">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="12"/>
       <c r="B51" s="21"/>
       <c r="C51" s="22"/>
@@ -1684,7 +1708,7 @@
       <c r="G51" s="24"/>
       <c r="H51" s="25"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="12"/>
       <c r="B52" s="21"/>
       <c r="C52" s="22"/>
@@ -1705,26 +1729,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -1762,7 +1786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1786,7 +1810,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1802,7 +1826,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -1824,7 +1848,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -1874,7 +1898,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -1902,7 +1926,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -1916,7 +1940,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -1930,7 +1954,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -1944,7 +1968,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -1958,7 +1982,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -1972,7 +1996,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -1986,7 +2010,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -2000,7 +2024,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -2014,7 +2038,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2028,7 +2052,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -2042,7 +2066,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -2056,7 +2080,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -2070,7 +2094,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2084,7 +2108,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -2098,7 +2122,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -2112,7 +2136,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -2126,7 +2150,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -2140,7 +2164,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -2154,7 +2178,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -2168,7 +2192,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -2182,7 +2206,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -2196,7 +2220,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -2210,7 +2234,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -2234,7 +2258,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -2318,7 +2342,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -2338,7 +2362,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -2380,7 +2404,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="12" t="s">
         <v>56</v>
       </c>
@@ -2400,36 +2424,36 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G43" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -2467,7 +2491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2491,7 +2515,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2515,7 +2539,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -2535,7 +2559,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -2599,7 +2623,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -2643,7 +2667,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2665,7 +2689,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -2679,7 +2703,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -2693,7 +2717,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -2715,7 +2739,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2737,7 +2761,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -2751,7 +2775,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -2765,7 +2789,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -2787,7 +2811,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2809,7 +2833,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -2823,7 +2847,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -2837,7 +2861,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -2859,7 +2883,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2881,7 +2905,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -2895,7 +2919,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -2909,7 +2933,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -2923,7 +2947,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -2937,7 +2961,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -2951,7 +2975,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -2965,7 +2989,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -2985,7 +3009,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -2999,7 +3023,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -3021,7 +3045,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -3045,7 +3069,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -3121,7 +3145,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -3135,7 +3159,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -3177,7 +3201,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="12" t="s">
         <v>56</v>
       </c>
@@ -3202,26 +3226,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -3259,7 +3283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3283,7 +3307,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3307,7 +3331,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -3327,7 +3351,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -3391,7 +3415,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -3435,7 +3459,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -3457,7 +3481,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -3471,7 +3495,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -3485,7 +3509,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -3507,7 +3531,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -3529,7 +3553,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -3543,7 +3567,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -3557,7 +3581,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -3579,7 +3603,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -3601,7 +3625,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -3615,7 +3639,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -3629,7 +3653,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -3651,7 +3675,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3673,7 +3697,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -3687,7 +3711,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -3701,7 +3725,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -3715,7 +3739,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -3729,7 +3753,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -3743,7 +3767,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -3757,7 +3781,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -3771,7 +3795,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -3785,7 +3809,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -3801,7 +3825,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -3825,7 +3849,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -3901,7 +3925,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -3915,7 +3939,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -3957,7 +3981,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="12" t="s">
         <v>56</v>
       </c>
@@ -3982,26 +4006,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -4039,7 +4063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -4063,7 +4087,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -4087,7 +4111,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -4109,7 +4133,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -4175,7 +4199,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -4217,7 +4241,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -4239,7 +4263,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -4253,7 +4277,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -4267,7 +4291,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -4281,7 +4305,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -4303,7 +4327,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -4317,7 +4341,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -4331,7 +4355,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -4345,7 +4369,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -4359,7 +4383,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -4373,7 +4397,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -4387,7 +4411,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -4401,7 +4425,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4415,7 +4439,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -4429,7 +4453,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -4443,7 +4467,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -4457,7 +4481,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -4471,7 +4495,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -4485,7 +4509,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -4499,7 +4523,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -4513,7 +4537,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -4527,7 +4551,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -4541,7 +4565,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -4565,7 +4589,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -4659,7 +4683,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -4681,7 +4705,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -4731,7 +4755,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="12" t="s">
         <v>56</v>
       </c>
@@ -4756,26 +4780,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -4813,7 +4837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -4839,7 +4863,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -4855,7 +4879,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -4877,7 +4901,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -4899,7 +4923,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
+    <row r="7" spans="1:8" ht="15.6">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -4913,7 +4937,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -4927,7 +4951,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="15.6">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -4955,7 +4979,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="15.6">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -4969,7 +4993,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -4983,7 +5007,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -4997,7 +5021,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -5011,7 +5035,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="15.6">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -5025,7 +5049,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -5039,7 +5063,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -5053,7 +5077,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -5067,7 +5091,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="15.6">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -5081,7 +5105,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -5095,7 +5119,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -5109,7 +5133,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -5123,7 +5147,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -5137,7 +5161,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -5151,7 +5175,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -5165,7 +5189,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -5179,7 +5203,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -5193,7 +5217,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -5207,7 +5231,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -5221,7 +5245,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -5235,7 +5259,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -5249,7 +5273,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -5263,7 +5287,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -5289,7 +5313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -5311,7 +5335,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -5329,7 +5353,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -5363,7 +5387,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5377,7 +5401,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -5395,7 +5419,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -5409,7 +5433,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5423,7 +5447,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5437,7 +5461,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="12" t="s">
         <v>56</v>
       </c>
@@ -5457,7 +5481,7 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G43" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5467,25 +5491,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -5523,7 +5547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
@@ -5547,7 +5571,7 @@
       </c>
       <c r="H3" s="33"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="27" t="s">
         <v>12</v>
       </c>
@@ -5571,7 +5595,7 @@
       </c>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="27"/>
       <c r="B5" s="28" t="s">
         <v>14</v>
@@ -5593,7 +5617,7 @@
       </c>
       <c r="H5" s="33"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="27"/>
       <c r="B6" s="28" t="s">
         <v>15</v>
@@ -5635,7 +5659,7 @@
       </c>
       <c r="H8" s="33"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="34"/>
       <c r="B9" s="28" t="s">
         <v>20</v>
@@ -5663,7 +5687,7 @@
       </c>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="34"/>
       <c r="B11" s="28" t="s">
         <v>23</v>
@@ -5677,7 +5701,7 @@
       </c>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="34"/>
       <c r="B12" s="28" t="s">
         <v>24</v>
@@ -5691,7 +5715,7 @@
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="34"/>
       <c r="B13" s="28" t="s">
         <v>25</v>
@@ -5705,7 +5729,7 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="34"/>
       <c r="B14" s="28" t="s">
         <v>26</v>
@@ -5719,7 +5743,7 @@
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="34"/>
       <c r="B15" s="28" t="s">
         <v>27</v>
@@ -5733,7 +5757,7 @@
       </c>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="34"/>
       <c r="B16" s="28" t="s">
         <v>28</v>
@@ -5747,7 +5771,7 @@
       </c>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="34"/>
       <c r="B17" s="28" t="s">
         <v>29</v>
@@ -5761,7 +5785,7 @@
       </c>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="34"/>
       <c r="B18" s="28" t="s">
         <v>30</v>
@@ -5775,7 +5799,7 @@
       </c>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="34"/>
       <c r="B19" s="28" t="s">
         <v>31</v>
@@ -5789,7 +5813,7 @@
       </c>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="34"/>
       <c r="B20" s="28" t="s">
         <v>32</v>
@@ -5803,7 +5827,7 @@
       </c>
       <c r="H20" s="33"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="34"/>
       <c r="B21" s="28" t="s">
         <v>33</v>
@@ -5817,7 +5841,7 @@
       </c>
       <c r="H21" s="33"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="34"/>
       <c r="B22" s="28" t="s">
         <v>34</v>
@@ -5831,7 +5855,7 @@
       </c>
       <c r="H22" s="33"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="29"/>
       <c r="B23" s="28" t="s">
         <v>35</v>
@@ -5845,7 +5869,7 @@
       </c>
       <c r="H23" s="29"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="34"/>
       <c r="B24" s="28" t="s">
         <v>36</v>
@@ -5859,7 +5883,7 @@
       </c>
       <c r="H24" s="33"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="34"/>
       <c r="B25" s="28" t="s">
         <v>37</v>
@@ -5873,7 +5897,7 @@
       </c>
       <c r="H25" s="33"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="34"/>
       <c r="B26" s="28" t="s">
         <v>38</v>
@@ -5887,7 +5911,7 @@
       </c>
       <c r="H26" s="33"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="34"/>
       <c r="B27" s="28" t="s">
         <v>39</v>
@@ -5901,7 +5925,7 @@
       </c>
       <c r="H27" s="33"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="34"/>
       <c r="B28" s="28" t="s">
         <v>40</v>
@@ -5915,7 +5939,7 @@
       </c>
       <c r="H28" s="33"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="35"/>
       <c r="B29" s="36" t="s">
         <v>41</v>
@@ -5929,7 +5953,7 @@
       </c>
       <c r="H29" s="33"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="34"/>
       <c r="B30" s="28" t="s">
         <v>42</v>
@@ -5943,7 +5967,7 @@
       </c>
       <c r="H30" s="33"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="34"/>
       <c r="B31" s="28" t="s">
         <v>43</v>
@@ -5957,7 +5981,7 @@
       </c>
       <c r="H31" s="33"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="34"/>
       <c r="B32" s="28" t="s">
         <v>44</v>
@@ -5971,7 +5995,7 @@
       </c>
       <c r="H32" s="33"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="37" t="s">
         <v>45</v>
       </c>
@@ -5987,7 +6011,7 @@
       </c>
       <c r="H33" s="33"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="37"/>
       <c r="B34" s="28" t="s">
         <v>47</v>
@@ -6065,7 +6089,7 @@
       </c>
       <c r="H38" s="33"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="27"/>
       <c r="B39" s="28" t="s">
         <v>52</v>
@@ -6079,7 +6103,7 @@
       </c>
       <c r="H39" s="33"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="28"/>
       <c r="B40" s="28" t="s">
         <v>54</v>
@@ -6121,7 +6145,7 @@
       </c>
       <c r="H42" s="33"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="37" t="s">
         <v>56</v>
       </c>
@@ -6146,26 +6170,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -6203,7 +6227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -6227,7 +6251,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -6251,7 +6275,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -6273,7 +6297,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -6300,12 +6324,20 @@
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
+      <c r="C7" s="4">
+        <v>43642</v>
+      </c>
+      <c r="D7" s="4">
+        <v>43642</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -6323,7 +6355,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -6351,7 +6383,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -6365,7 +6397,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -6379,7 +6411,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -6393,7 +6425,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -6407,7 +6439,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -6421,7 +6453,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -6435,7 +6467,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -6449,7 +6481,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -6463,7 +6495,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -6477,7 +6509,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -6491,7 +6523,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -6505,7 +6537,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -6519,7 +6551,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -6533,7 +6565,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -6547,7 +6579,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -6561,7 +6593,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -6575,7 +6607,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -6589,7 +6621,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -6603,7 +6635,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -6617,7 +6649,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -6631,7 +6663,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -6645,7 +6677,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -6659,23 +6691,31 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="6"/>
+      <c r="C33" s="4">
+        <v>43642</v>
+      </c>
+      <c r="D33" s="4">
+        <v>43642</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
       <c r="G33" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -6694,12 +6734,20 @@
       <c r="B35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="6"/>
+      <c r="C35" s="4">
+        <v>43645</v>
+      </c>
+      <c r="D35" s="4">
+        <v>43645</v>
+      </c>
+      <c r="E35" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
       <c r="G35" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H35" s="8"/>
     </row>
@@ -6708,12 +6756,20 @@
       <c r="B36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="6"/>
+      <c r="C36" s="4">
+        <v>43645</v>
+      </c>
+      <c r="D36" s="4">
+        <v>43645</v>
+      </c>
+      <c r="E36" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
       <c r="G36" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H36" s="8"/>
     </row>
@@ -6736,38 +6792,58 @@
       <c r="B38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="6"/>
+      <c r="C38" s="4">
+        <v>43646</v>
+      </c>
+      <c r="D38" s="4">
+        <v>43646</v>
+      </c>
+      <c r="E38" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1</v>
+      </c>
       <c r="G38" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="4">
+        <v>43646</v>
+      </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="6"/>
+      <c r="E39" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G39" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="4">
+        <v>43646</v>
+      </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="6"/>
+      <c r="E40" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0.5</v>
+      </c>
       <c r="G40" s="7" t="s">
         <v>19</v>
       </c>
@@ -6801,7 +6877,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="12" t="s">
         <v>56</v>
       </c>
@@ -6826,26 +6902,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -6883,7 +6959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -6907,7 +6983,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -6931,7 +7007,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -6953,7 +7029,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -6995,7 +7071,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -7023,7 +7099,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -7037,7 +7113,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -7051,7 +7127,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -7065,7 +7141,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -7079,7 +7155,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -7093,7 +7169,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -7107,7 +7183,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -7121,7 +7197,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -7135,7 +7211,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7149,7 +7225,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -7163,7 +7239,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -7177,7 +7253,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -7191,7 +7267,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7205,7 +7281,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -7219,7 +7295,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -7233,7 +7309,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -7247,7 +7323,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -7261,7 +7337,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -7275,7 +7351,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -7289,7 +7365,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -7303,7 +7379,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -7317,7 +7393,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -7331,7 +7407,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -7347,7 +7423,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -7417,7 +7493,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -7431,7 +7507,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -7473,7 +7549,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="12" t="s">
         <v>56</v>
       </c>
@@ -7498,34 +7574,34 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
     <col min="9" max="21" width="9" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
-    <col min="23" max="23" width="17.125" customWidth="1"/>
-    <col min="24" max="24" width="18.5" customWidth="1"/>
-    <col min="25" max="25" width="26.375" customWidth="1"/>
-    <col min="26" max="26" width="21.875" customWidth="1"/>
-    <col min="27" max="27" width="38.125" customWidth="1"/>
-    <col min="28" max="28" width="71.75" customWidth="1"/>
+    <col min="23" max="23" width="17.109375" customWidth="1"/>
+    <col min="24" max="24" width="18.44140625" customWidth="1"/>
+    <col min="25" max="25" width="26.33203125" customWidth="1"/>
+    <col min="26" max="26" width="21.88671875" customWidth="1"/>
+    <col min="27" max="27" width="38.109375" customWidth="1"/>
+    <col min="28" max="28" width="71.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="33.75">
+    <row r="1" spans="1:28" ht="32.4">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -7597,7 +7673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="16.5">
+    <row r="3" spans="1:28" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -7645,7 +7721,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="16.5">
+    <row r="4" spans="1:28" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -7675,7 +7751,7 @@
       </c>
       <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="1:28" ht="16.5">
+    <row r="5" spans="1:28" ht="24">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -7713,7 +7789,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="16.5">
+    <row r="6" spans="1:28" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -7817,7 +7893,7 @@
       </c>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" spans="1:28" ht="16.5">
+    <row r="9" spans="1:28" ht="24">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -7873,7 +7949,7 @@
       </c>
       <c r="AB10" s="8"/>
     </row>
-    <row r="11" spans="1:28" ht="16.5">
+    <row r="11" spans="1:28" ht="24">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -7901,7 +7977,7 @@
       </c>
       <c r="AB11" s="8"/>
     </row>
-    <row r="12" spans="1:28" ht="16.5">
+    <row r="12" spans="1:28" ht="15.6">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -7929,7 +8005,7 @@
       </c>
       <c r="AB12" s="8"/>
     </row>
-    <row r="13" spans="1:28" ht="16.5">
+    <row r="13" spans="1:28" ht="15.6">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -7961,7 +8037,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="16.5">
+    <row r="14" spans="1:28" ht="15.6">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -7975,7 +8051,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:28" ht="16.5">
+    <row r="15" spans="1:28" ht="24">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -7989,7 +8065,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="16.5">
+    <row r="16" spans="1:28" ht="15.6">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -8003,7 +8079,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -8017,7 +8093,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -8031,7 +8107,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -8045,7 +8121,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -8059,7 +8135,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -8073,7 +8149,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -8087,7 +8163,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -8101,7 +8177,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -8115,7 +8191,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -8129,7 +8205,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -8143,7 +8219,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -8157,7 +8233,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -8171,7 +8247,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -8185,7 +8261,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -8199,7 +8275,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -8213,7 +8289,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -8227,7 +8303,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -8251,7 +8327,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -8325,7 +8401,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -8339,7 +8415,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -8381,7 +8457,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="12" t="s">
         <v>56</v>
       </c>

--- a/梁卫鸿/旅游网—开发一梁卫鸿 .xlsx
+++ b/梁卫鸿/旅游网—开发一梁卫鸿 .xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ojjplus\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29C17B5-8347-4570-943D-462AD74250BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="90">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -302,11 +296,35 @@
     <t>已完成</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>管理员-查询旅游路线类型-分页</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>团购信息管理</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>团购信息管理</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>团购信息管理</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="[$-804]h:mm"/>
     <numFmt numFmtId="177" formatCode="h:mm;@"/>
@@ -505,7 +523,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -620,6 +638,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -635,7 +656,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -907,38 +928,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" customWidth="1"/>
-    <col min="8" max="8" width="99.88671875" customWidth="1"/>
+    <col min="7" max="7" width="30.375" customWidth="1"/>
+    <col min="8" max="8" width="99.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:8" ht="33.75">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-    </row>
-    <row r="2" spans="1:8" ht="28.8">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -964,7 +985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -988,7 +1009,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1012,7 +1033,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -1034,7 +1055,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -1056,7 +1077,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="15.6">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1080,7 +1101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.6">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1100,7 +1121,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="15.6">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -1114,7 +1135,7 @@
       </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6">
+    <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>21</v>
@@ -1130,7 +1151,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="15.6">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -1144,7 +1165,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -1158,7 +1179,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -1172,7 +1193,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -1186,7 +1207,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="15.6">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -1200,7 +1221,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -1214,7 +1235,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -1228,7 +1249,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -1242,7 +1263,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="15.6">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -1256,7 +1277,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -1270,7 +1291,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -1284,7 +1305,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -1298,7 +1319,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -1312,7 +1333,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -1326,7 +1347,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -1340,7 +1361,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -1354,7 +1375,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -1368,7 +1389,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -1382,7 +1403,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -1396,7 +1417,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -1410,7 +1431,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -1424,7 +1445,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -1438,7 +1459,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -1458,11 +1479,11 @@
         <v>1</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -1480,42 +1501,58 @@
         <v>1</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="16.5">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="6"/>
+      <c r="C35" s="4">
+        <v>43644</v>
+      </c>
+      <c r="D35" s="4">
+        <v>43644</v>
+      </c>
+      <c r="E35" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
       <c r="G35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="16.5">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="6"/>
+      <c r="C36" s="4">
+        <v>43644</v>
+      </c>
+      <c r="D36" s="4">
+        <v>43644</v>
+      </c>
+      <c r="E36" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
       <c r="G36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="16.5">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1526,21 +1563,29 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="16.5">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="6"/>
+      <c r="C38" s="4">
+        <v>43646</v>
+      </c>
+      <c r="D38" s="4">
+        <v>43646</v>
+      </c>
+      <c r="E38" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1</v>
+      </c>
       <c r="G38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -1558,13 +1603,13 @@
         <v>1</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -1582,11 +1627,11 @@
         <v>1</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -1600,45 +1645,57 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="16.5">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="6"/>
+      <c r="C42" s="4">
+        <v>43646</v>
+      </c>
+      <c r="D42" s="4">
+        <v>43645</v>
+      </c>
+      <c r="E42" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1</v>
+      </c>
       <c r="G42" s="7" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
-      <c r="A43" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="4"/>
+    <row r="43" spans="1:8" ht="16.5">
+      <c r="A43" s="8"/>
+      <c r="B43" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="6"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="8"/>
       <c r="G43" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
-      <c r="A44" s="12"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="25"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="16.5">
+      <c r="A44" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" ht="16.5">
       <c r="A45" s="12"/>
       <c r="B45" s="21"/>
       <c r="C45" s="22"/>
@@ -1648,7 +1705,7 @@
       <c r="G45" s="24"/>
       <c r="H45" s="25"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="16.5">
       <c r="A46" s="12"/>
       <c r="B46" s="21"/>
       <c r="C46" s="22"/>
@@ -1658,7 +1715,7 @@
       <c r="G46" s="24"/>
       <c r="H46" s="25"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="16.5">
       <c r="A47" s="12"/>
       <c r="B47" s="21"/>
       <c r="C47" s="22"/>
@@ -1668,7 +1725,7 @@
       <c r="G47" s="24"/>
       <c r="H47" s="25"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="16.5">
       <c r="A48" s="12"/>
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
@@ -1678,7 +1735,7 @@
       <c r="G48" s="24"/>
       <c r="H48" s="25"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="16.5">
       <c r="A49" s="12"/>
       <c r="B49" s="21"/>
       <c r="C49" s="22"/>
@@ -1688,7 +1745,7 @@
       <c r="G49" s="24"/>
       <c r="H49" s="25"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="16.5">
       <c r="A50" s="12"/>
       <c r="B50" s="21"/>
       <c r="C50" s="22"/>
@@ -1698,7 +1755,7 @@
       <c r="G50" s="24"/>
       <c r="H50" s="25"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="16.5">
       <c r="A51" s="12"/>
       <c r="B51" s="21"/>
       <c r="C51" s="22"/>
@@ -1708,7 +1765,7 @@
       <c r="G51" s="24"/>
       <c r="H51" s="25"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="16.5">
       <c r="A52" s="12"/>
       <c r="B52" s="21"/>
       <c r="C52" s="22"/>
@@ -1717,6 +1774,16 @@
       <c r="F52" s="23"/>
       <c r="G52" s="24"/>
       <c r="H52" s="25"/>
+    </row>
+    <row r="53" spans="1:8" ht="16.5">
+      <c r="A53" s="12"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1729,36 +1796,36 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:H43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:8" ht="33.75">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1786,7 +1853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1810,7 +1877,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1826,7 +1893,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -1848,7 +1915,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -1898,7 +1965,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="24">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -1926,7 +1993,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="24">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -1940,7 +2007,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -1954,7 +2021,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -1968,7 +2035,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -1982,7 +2049,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="24">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -1996,7 +2063,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -2010,7 +2077,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -2024,7 +2091,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -2038,7 +2105,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2052,7 +2119,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -2066,7 +2133,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -2080,7 +2147,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -2094,7 +2161,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2108,7 +2175,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -2122,7 +2189,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -2136,7 +2203,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -2150,7 +2217,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -2164,7 +2231,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -2178,7 +2245,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -2192,7 +2259,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -2206,7 +2273,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -2220,7 +2287,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -2234,7 +2301,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -2258,7 +2325,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -2342,7 +2409,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -2362,7 +2429,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -2404,11 +2471,11 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
-      <c r="A43" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="4"/>
+    <row r="43" spans="1:8" ht="16.5">
+      <c r="A43" s="21"/>
+      <c r="B43" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -2417,6 +2484,20 @@
         <v>19</v>
       </c>
       <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" ht="16.5">
+      <c r="A44" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2424,7 +2505,7 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G43" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2434,36 +2515,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:8" ht="33.75">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -2491,7 +2572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2515,7 +2596,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2539,7 +2620,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -2559,7 +2640,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -2623,7 +2704,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="24">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -2667,7 +2748,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="24">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2689,7 +2770,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -2703,7 +2784,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -2717,7 +2798,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -2739,7 +2820,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="24">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2761,7 +2842,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -2775,7 +2856,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -2789,7 +2870,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -2811,7 +2892,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -2833,7 +2914,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -2847,7 +2928,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -2861,7 +2942,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -2883,7 +2964,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -2905,7 +2986,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -2919,7 +3000,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -2933,7 +3014,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -2947,7 +3028,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -2961,7 +3042,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -2975,7 +3056,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -2989,7 +3070,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -3009,7 +3090,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -3023,7 +3104,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -3045,7 +3126,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -3069,7 +3150,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -3145,7 +3226,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -3159,7 +3240,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -3201,11 +3282,11 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
-      <c r="A43" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="4"/>
+    <row r="43" spans="1:8" ht="16.5">
+      <c r="A43" s="21"/>
+      <c r="B43" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -3214,6 +3295,20 @@
         <v>19</v>
       </c>
       <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" ht="16.5">
+      <c r="A44" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3226,36 +3321,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:8" ht="33.75">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -3283,7 +3378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3307,7 +3402,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3331,7 +3426,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -3351,7 +3446,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -3415,7 +3510,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="24">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -3459,7 +3554,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="24">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -3481,7 +3576,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -3495,7 +3590,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -3509,7 +3604,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -3531,7 +3626,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="24">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -3553,7 +3648,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -3567,7 +3662,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -3581,7 +3676,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -3603,7 +3698,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -3625,7 +3720,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -3639,7 +3734,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -3653,7 +3748,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -3675,7 +3770,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -3697,7 +3792,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -3711,7 +3806,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -3725,7 +3820,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -3739,7 +3834,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -3753,7 +3848,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -3767,7 +3862,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -3781,7 +3876,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -3795,7 +3890,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -3809,7 +3904,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -3825,7 +3920,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -3849,7 +3944,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -3925,7 +4020,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -3939,7 +4034,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -3981,11 +4076,11 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
-      <c r="A43" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="4"/>
+    <row r="43" spans="1:8" ht="16.5">
+      <c r="A43" s="21"/>
+      <c r="B43" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -3994,6 +4089,20 @@
         <v>19</v>
       </c>
       <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" ht="16.5">
+      <c r="A44" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4006,36 +4115,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:8" ht="33.75">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -4063,7 +4172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -4087,7 +4196,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -4111,7 +4220,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -4133,7 +4242,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -4199,7 +4308,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="24">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -4241,7 +4350,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="24">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -4263,7 +4372,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -4277,7 +4386,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -4291,7 +4400,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -4305,7 +4414,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="24">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -4327,7 +4436,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -4341,7 +4450,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -4355,7 +4464,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -4369,7 +4478,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -4383,7 +4492,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -4397,7 +4506,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -4411,7 +4520,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -4425,7 +4534,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -4439,7 +4548,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -4453,7 +4562,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -4467,7 +4576,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -4481,7 +4590,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -4495,7 +4604,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -4509,7 +4618,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -4523,7 +4632,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -4537,7 +4646,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -4551,7 +4660,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -4565,7 +4674,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -4589,7 +4698,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -4683,7 +4792,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -4705,7 +4814,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -4755,11 +4864,11 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
-      <c r="A43" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="4"/>
+    <row r="43" spans="1:8" ht="16.5">
+      <c r="A43" s="21"/>
+      <c r="B43" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -4768,6 +4877,20 @@
         <v>19</v>
       </c>
       <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" ht="16.5">
+      <c r="A44" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4780,36 +4903,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:8" ht="33.75">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -4837,7 +4960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -4863,7 +4986,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -4879,7 +5002,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -4901,7 +5024,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -4923,7 +5046,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="15.6">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -4937,7 +5060,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -4951,7 +5074,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="15.6">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -4979,7 +5102,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="15.6">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -4993,7 +5116,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -5007,7 +5130,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -5021,7 +5144,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -5035,7 +5158,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="15.6">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -5049,7 +5172,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -5063,7 +5186,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -5077,7 +5200,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -5091,7 +5214,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="15.6">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -5105,7 +5228,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -5119,7 +5242,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -5133,7 +5256,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -5147,7 +5270,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -5161,7 +5284,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -5175,7 +5298,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -5189,7 +5312,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -5203,7 +5326,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -5217,7 +5340,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -5231,7 +5354,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -5245,7 +5368,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -5259,7 +5382,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -5273,7 +5396,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -5287,7 +5410,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -5313,7 +5436,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -5335,7 +5458,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="16.5">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -5353,7 +5476,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="16.5">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -5387,7 +5510,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="16.5">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -5401,7 +5524,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -5419,7 +5542,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -5433,7 +5556,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="16.5">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>55</v>
@@ -5447,7 +5570,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="16.5">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>51</v>
@@ -5461,11 +5584,11 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
-      <c r="A43" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="4"/>
+    <row r="43" spans="1:8" ht="16.5">
+      <c r="A43" s="21"/>
+      <c r="B43" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
@@ -5474,6 +5597,20 @@
         <v>19</v>
       </c>
       <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" ht="16.5">
+      <c r="A44" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5481,7 +5618,7 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G43" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G44">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5491,35 +5628,35 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:8" ht="33.75">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="26" t="s">
@@ -5547,7 +5684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
@@ -5571,7 +5708,7 @@
       </c>
       <c r="H3" s="33"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="27" t="s">
         <v>12</v>
       </c>
@@ -5595,7 +5732,7 @@
       </c>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="27"/>
       <c r="B5" s="28" t="s">
         <v>14</v>
@@ -5617,7 +5754,7 @@
       </c>
       <c r="H5" s="33"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="27"/>
       <c r="B6" s="28" t="s">
         <v>15</v>
@@ -5659,7 +5796,7 @@
       </c>
       <c r="H8" s="33"/>
     </row>
-    <row r="9" spans="1:8" ht="24">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="34"/>
       <c r="B9" s="28" t="s">
         <v>20</v>
@@ -5687,7 +5824,7 @@
       </c>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:8" ht="24">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="34"/>
       <c r="B11" s="28" t="s">
         <v>23</v>
@@ -5701,7 +5838,7 @@
       </c>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="34"/>
       <c r="B12" s="28" t="s">
         <v>24</v>
@@ -5715,7 +5852,7 @@
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="34"/>
       <c r="B13" s="28" t="s">
         <v>25</v>
@@ -5729,7 +5866,7 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="34"/>
       <c r="B14" s="28" t="s">
         <v>26</v>
@@ -5743,7 +5880,7 @@
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" ht="24">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="34"/>
       <c r="B15" s="28" t="s">
         <v>27</v>
@@ -5757,7 +5894,7 @@
       </c>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="34"/>
       <c r="B16" s="28" t="s">
         <v>28</v>
@@ -5771,7 +5908,7 @@
       </c>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="34"/>
       <c r="B17" s="28" t="s">
         <v>29</v>
@@ -5785,7 +5922,7 @@
       </c>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="34"/>
       <c r="B18" s="28" t="s">
         <v>30</v>
@@ -5799,7 +5936,7 @@
       </c>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="34"/>
       <c r="B19" s="28" t="s">
         <v>31</v>
@@ -5813,7 +5950,7 @@
       </c>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="34"/>
       <c r="B20" s="28" t="s">
         <v>32</v>
@@ -5827,7 +5964,7 @@
       </c>
       <c r="H20" s="33"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="34"/>
       <c r="B21" s="28" t="s">
         <v>33</v>
@@ -5841,7 +5978,7 @@
       </c>
       <c r="H21" s="33"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="34"/>
       <c r="B22" s="28" t="s">
         <v>34</v>
@@ -5855,7 +5992,7 @@
       </c>
       <c r="H22" s="33"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="29"/>
       <c r="B23" s="28" t="s">
         <v>35</v>
@@ -5869,7 +6006,7 @@
       </c>
       <c r="H23" s="29"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="34"/>
       <c r="B24" s="28" t="s">
         <v>36</v>
@@ -5883,7 +6020,7 @@
       </c>
       <c r="H24" s="33"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="34"/>
       <c r="B25" s="28" t="s">
         <v>37</v>
@@ -5897,7 +6034,7 @@
       </c>
       <c r="H25" s="33"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="34"/>
       <c r="B26" s="28" t="s">
         <v>38</v>
@@ -5911,7 +6048,7 @@
       </c>
       <c r="H26" s="33"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="34"/>
       <c r="B27" s="28" t="s">
         <v>39</v>
@@ -5925,7 +6062,7 @@
       </c>
       <c r="H27" s="33"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="34"/>
       <c r="B28" s="28" t="s">
         <v>40</v>
@@ -5939,7 +6076,7 @@
       </c>
       <c r="H28" s="33"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="35"/>
       <c r="B29" s="36" t="s">
         <v>41</v>
@@ -5953,7 +6090,7 @@
       </c>
       <c r="H29" s="33"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="34"/>
       <c r="B30" s="28" t="s">
         <v>42</v>
@@ -5967,7 +6104,7 @@
       </c>
       <c r="H30" s="33"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="34"/>
       <c r="B31" s="28" t="s">
         <v>43</v>
@@ -5981,7 +6118,7 @@
       </c>
       <c r="H31" s="33"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="34"/>
       <c r="B32" s="28" t="s">
         <v>44</v>
@@ -5995,7 +6132,7 @@
       </c>
       <c r="H32" s="33"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="37" t="s">
         <v>45</v>
       </c>
@@ -6011,7 +6148,7 @@
       </c>
       <c r="H33" s="33"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="37"/>
       <c r="B34" s="28" t="s">
         <v>47</v>
@@ -6089,7 +6226,7 @@
       </c>
       <c r="H38" s="33"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="27"/>
       <c r="B39" s="28" t="s">
         <v>52</v>
@@ -6103,7 +6240,7 @@
       </c>
       <c r="H39" s="33"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="28"/>
       <c r="B40" s="28" t="s">
         <v>54</v>
@@ -6145,11 +6282,11 @@
       </c>
       <c r="H42" s="33"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
-      <c r="A43" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="29"/>
+    <row r="43" spans="1:8" ht="16.5">
+      <c r="A43" s="38"/>
+      <c r="B43" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
@@ -6158,6 +6295,20 @@
         <v>19</v>
       </c>
       <c r="H43" s="33"/>
+    </row>
+    <row r="44" spans="1:8" ht="16.5">
+      <c r="A44" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6170,36 +6321,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:8" ht="33.75">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -6227,7 +6378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -6251,7 +6402,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -6275,7 +6426,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -6297,7 +6448,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -6355,7 +6506,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="24">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -6383,7 +6534,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="24">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -6397,7 +6548,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -6411,7 +6562,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -6425,7 +6576,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -6439,7 +6590,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="24">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -6453,7 +6604,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -6467,7 +6618,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -6481,7 +6632,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -6495,7 +6646,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -6509,7 +6660,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -6523,7 +6674,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -6537,7 +6688,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -6551,7 +6702,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -6565,7 +6716,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -6579,7 +6730,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -6593,7 +6744,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -6607,7 +6758,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -6621,7 +6772,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -6635,7 +6786,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -6649,7 +6800,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -6663,7 +6814,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -6677,7 +6828,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -6691,7 +6842,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -6715,7 +6866,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -6809,7 +6960,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -6829,7 +6980,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -6877,11 +7028,11 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
-      <c r="A43" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="4"/>
+    <row r="43" spans="1:8" ht="16.5">
+      <c r="A43" s="21"/>
+      <c r="B43" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -6890,6 +7041,20 @@
         <v>19</v>
       </c>
       <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" ht="16.5">
+      <c r="A44" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6902,36 +7067,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:8" ht="33.75">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -6959,7 +7124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -6983,7 +7148,7 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -7007,7 +7172,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -7029,7 +7194,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -7071,7 +7236,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="24">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -7099,7 +7264,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="24">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -7113,7 +7278,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -7127,7 +7292,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -7141,7 +7306,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -7155,7 +7320,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="24">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -7169,7 +7334,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -7183,7 +7348,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -7197,7 +7362,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -7211,7 +7376,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -7225,7 +7390,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -7239,7 +7404,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -7253,7 +7418,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -7267,7 +7432,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -7281,7 +7446,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -7295,7 +7460,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -7309,7 +7474,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -7323,7 +7488,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -7337,7 +7502,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -7351,7 +7516,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -7365,7 +7530,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -7379,7 +7544,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -7393,7 +7558,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -7407,7 +7572,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -7423,7 +7588,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -7493,7 +7658,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -7507,7 +7672,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -7549,11 +7714,11 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
-      <c r="A43" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="4"/>
+    <row r="43" spans="1:8" ht="16.5">
+      <c r="A43" s="21"/>
+      <c r="B43" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -7562,6 +7727,20 @@
         <v>19</v>
       </c>
       <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" ht="16.5">
+      <c r="A44" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7574,54 +7753,54 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AB43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
-    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="131.125" customWidth="1"/>
     <col min="9" max="21" width="9" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
-    <col min="23" max="23" width="17.109375" customWidth="1"/>
-    <col min="24" max="24" width="18.44140625" customWidth="1"/>
-    <col min="25" max="25" width="26.33203125" customWidth="1"/>
-    <col min="26" max="26" width="21.88671875" customWidth="1"/>
-    <col min="27" max="27" width="38.109375" customWidth="1"/>
-    <col min="28" max="28" width="71.77734375" customWidth="1"/>
+    <col min="23" max="23" width="17.125" customWidth="1"/>
+    <col min="24" max="24" width="18.5" customWidth="1"/>
+    <col min="25" max="25" width="26.375" customWidth="1"/>
+    <col min="26" max="26" width="21.875" customWidth="1"/>
+    <col min="27" max="27" width="38.125" customWidth="1"/>
+    <col min="28" max="28" width="71.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="32.4">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:28" ht="33.75">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="U1" s="38" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="U1" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
     </row>
     <row r="2" spans="1:28" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -7673,7 +7852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.6">
+    <row r="3" spans="1:28" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -7721,7 +7900,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.6">
+    <row r="4" spans="1:28" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -7751,7 +7930,7 @@
       </c>
       <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="1:28" ht="24">
+    <row r="5" spans="1:28" ht="16.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -7789,7 +7968,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15.6">
+    <row r="6" spans="1:28" ht="16.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -7893,7 +8072,7 @@
       </c>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" spans="1:28" ht="24">
+    <row r="9" spans="1:28" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -7949,7 +8128,7 @@
       </c>
       <c r="AB10" s="8"/>
     </row>
-    <row r="11" spans="1:28" ht="24">
+    <row r="11" spans="1:28" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -7977,7 +8156,7 @@
       </c>
       <c r="AB11" s="8"/>
     </row>
-    <row r="12" spans="1:28" ht="15.6">
+    <row r="12" spans="1:28" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -8005,7 +8184,7 @@
       </c>
       <c r="AB12" s="8"/>
     </row>
-    <row r="13" spans="1:28" ht="15.6">
+    <row r="13" spans="1:28" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -8037,7 +8216,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.6">
+    <row r="14" spans="1:28" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -8051,7 +8230,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:28" ht="24">
+    <row r="15" spans="1:28" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -8065,7 +8244,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="15.6">
+    <row r="16" spans="1:28" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -8079,7 +8258,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -8093,7 +8272,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -8107,7 +8286,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -8121,7 +8300,7 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -8135,7 +8314,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
@@ -8149,7 +8328,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>34</v>
@@ -8163,7 +8342,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="24">
+    <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -8177,7 +8356,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>36</v>
@@ -8191,7 +8370,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>37</v>
@@ -8205,7 +8384,7 @@
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -8219,7 +8398,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -8233,7 +8412,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -8247,7 +8426,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -8261,7 +8440,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>42</v>
@@ -8275,7 +8454,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>43</v>
@@ -8289,7 +8468,7 @@
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>44</v>
@@ -8303,7 +8482,7 @@
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="16.5">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -8327,7 +8506,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -8401,7 +8580,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="24">
+    <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -8415,7 +8594,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="24">
+    <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>54</v>
@@ -8457,11 +8636,11 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
-      <c r="A43" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="4"/>
+    <row r="43" spans="1:8" ht="16.5">
+      <c r="A43" s="21"/>
+      <c r="B43" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -8470,6 +8649,20 @@
         <v>19</v>
       </c>
       <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" ht="16.5">
+      <c r="A44" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
